--- a/data/HLE.xlsx
+++ b/data/HLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhiannonbatstone/Desktop/population_programme_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DA6E8E-55FD-514C-8D90-E8C7C7644411}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C40538B-295B-694A-A9EC-C964DCA2A96B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HLE" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4505" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6485" uniqueCount="88">
   <si>
     <t>Males</t>
   </si>
@@ -294,6 +294,15 @@
   </si>
   <si>
     <t>Perth and Kinross</t>
+  </si>
+  <si>
+    <t>2017-19</t>
+  </si>
+  <si>
+    <t>2018-20</t>
+  </si>
+  <si>
+    <t>2019-21</t>
   </si>
 </sst>
 </file>
@@ -659,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H543"/>
+  <dimension ref="A1:H727"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A718" workbookViewId="0">
+      <selection activeCell="G738" sqref="G738"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12124,144 +12133,3412 @@
       </c>
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A530" s="1"/>
-      <c r="B530" s="1"/>
-      <c r="C530" s="1"/>
-      <c r="D530" s="1"/>
-      <c r="E530" s="1"/>
+      <c r="A530" t="s">
+        <v>85</v>
+      </c>
+      <c r="B530" t="s">
+        <v>57</v>
+      </c>
+      <c r="C530" t="s">
+        <v>58</v>
+      </c>
+      <c r="D530" t="s">
+        <v>2</v>
+      </c>
+      <c r="E530" t="s">
+        <v>1</v>
+      </c>
       <c r="F530" s="1"/>
       <c r="G530" s="1"/>
       <c r="H530" s="1"/>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A531" s="1"/>
-      <c r="B531" s="1"/>
-      <c r="C531" s="1"/>
-      <c r="D531" s="1"/>
-      <c r="E531" s="1"/>
+      <c r="A531" t="s">
+        <v>85</v>
+      </c>
+      <c r="B531" t="s">
+        <v>57</v>
+      </c>
+      <c r="C531" t="s">
+        <v>58</v>
+      </c>
+      <c r="D531" t="s">
+        <v>0</v>
+      </c>
+      <c r="E531" t="s">
+        <v>1</v>
+      </c>
       <c r="F531" s="1"/>
       <c r="G531" s="1"/>
       <c r="H531" s="1"/>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A532" s="1"/>
-      <c r="B532" s="1"/>
-      <c r="C532" s="1"/>
-      <c r="D532" s="1"/>
-      <c r="E532" s="1"/>
+      <c r="A532" t="s">
+        <v>86</v>
+      </c>
+      <c r="B532" t="s">
+        <v>57</v>
+      </c>
+      <c r="C532" t="s">
+        <v>58</v>
+      </c>
+      <c r="D532" t="s">
+        <v>2</v>
+      </c>
+      <c r="E532" t="s">
+        <v>1</v>
+      </c>
       <c r="F532" s="1"/>
       <c r="G532" s="1"/>
       <c r="H532" s="1"/>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A533" s="1"/>
-      <c r="B533" s="1"/>
-      <c r="C533" s="1"/>
-      <c r="D533" s="1"/>
-      <c r="E533" s="1"/>
+      <c r="A533" t="s">
+        <v>86</v>
+      </c>
+      <c r="B533" t="s">
+        <v>57</v>
+      </c>
+      <c r="C533" t="s">
+        <v>58</v>
+      </c>
+      <c r="D533" t="s">
+        <v>0</v>
+      </c>
+      <c r="E533" t="s">
+        <v>1</v>
+      </c>
       <c r="F533" s="1"/>
       <c r="G533" s="1"/>
       <c r="H533" s="1"/>
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A534" s="1"/>
-      <c r="B534" s="1"/>
-      <c r="C534" s="1"/>
-      <c r="D534" s="1"/>
-      <c r="E534" s="1"/>
+      <c r="A534" t="s">
+        <v>87</v>
+      </c>
+      <c r="B534" t="s">
+        <v>57</v>
+      </c>
+      <c r="C534" t="s">
+        <v>58</v>
+      </c>
+      <c r="D534" t="s">
+        <v>2</v>
+      </c>
+      <c r="E534" t="s">
+        <v>1</v>
+      </c>
       <c r="F534" s="1"/>
       <c r="G534" s="1"/>
       <c r="H534" s="1"/>
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A535" s="1"/>
-      <c r="B535" s="1"/>
-      <c r="C535" s="1"/>
-      <c r="D535" s="1"/>
-      <c r="E535" s="1"/>
+      <c r="A535" t="s">
+        <v>87</v>
+      </c>
+      <c r="B535" t="s">
+        <v>57</v>
+      </c>
+      <c r="C535" t="s">
+        <v>58</v>
+      </c>
+      <c r="D535" t="s">
+        <v>0</v>
+      </c>
+      <c r="E535" t="s">
+        <v>1</v>
+      </c>
       <c r="F535" s="1"/>
       <c r="G535" s="1"/>
       <c r="H535" s="1"/>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A536" s="1"/>
-      <c r="B536" s="1"/>
-      <c r="C536" s="1"/>
-      <c r="D536" s="1"/>
-      <c r="E536" s="1"/>
+      <c r="A536" t="s">
+        <v>85</v>
+      </c>
+      <c r="B536" t="s">
+        <v>59</v>
+      </c>
+      <c r="C536" t="s">
+        <v>60</v>
+      </c>
+      <c r="D536" t="s">
+        <v>2</v>
+      </c>
+      <c r="E536" t="s">
+        <v>1</v>
+      </c>
       <c r="F536" s="1"/>
       <c r="G536" s="1"/>
       <c r="H536" s="1"/>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A537" s="1"/>
-      <c r="B537" s="1"/>
-      <c r="C537" s="1"/>
-      <c r="D537" s="1"/>
-      <c r="E537" s="1"/>
+      <c r="A537" t="s">
+        <v>85</v>
+      </c>
+      <c r="B537" t="s">
+        <v>59</v>
+      </c>
+      <c r="C537" t="s">
+        <v>60</v>
+      </c>
+      <c r="D537" t="s">
+        <v>0</v>
+      </c>
+      <c r="E537" t="s">
+        <v>1</v>
+      </c>
       <c r="F537" s="1"/>
       <c r="G537" s="1"/>
       <c r="H537" s="1"/>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A538" s="1"/>
-      <c r="B538" s="1"/>
-      <c r="C538" s="1"/>
-      <c r="D538" s="1"/>
-      <c r="E538" s="1"/>
+      <c r="A538" t="s">
+        <v>86</v>
+      </c>
+      <c r="B538" t="s">
+        <v>59</v>
+      </c>
+      <c r="C538" t="s">
+        <v>60</v>
+      </c>
+      <c r="D538" t="s">
+        <v>2</v>
+      </c>
+      <c r="E538" t="s">
+        <v>1</v>
+      </c>
       <c r="F538" s="1"/>
       <c r="G538" s="1"/>
       <c r="H538" s="1"/>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A539" s="1"/>
-      <c r="B539" s="1"/>
-      <c r="C539" s="1"/>
-      <c r="D539" s="1"/>
-      <c r="E539" s="1"/>
+      <c r="A539" t="s">
+        <v>86</v>
+      </c>
+      <c r="B539" t="s">
+        <v>59</v>
+      </c>
+      <c r="C539" t="s">
+        <v>60</v>
+      </c>
+      <c r="D539" t="s">
+        <v>0</v>
+      </c>
+      <c r="E539" t="s">
+        <v>1</v>
+      </c>
       <c r="F539" s="1"/>
       <c r="G539" s="1"/>
       <c r="H539" s="1"/>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A540" s="1"/>
-      <c r="B540" s="1"/>
-      <c r="C540" s="1"/>
-      <c r="D540" s="1"/>
-      <c r="E540" s="1"/>
+      <c r="A540" t="s">
+        <v>87</v>
+      </c>
+      <c r="B540" t="s">
+        <v>59</v>
+      </c>
+      <c r="C540" t="s">
+        <v>60</v>
+      </c>
+      <c r="D540" t="s">
+        <v>2</v>
+      </c>
+      <c r="E540" t="s">
+        <v>1</v>
+      </c>
       <c r="F540" s="1"/>
       <c r="G540" s="1"/>
       <c r="H540" s="1"/>
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A541" s="1"/>
-      <c r="B541" s="1"/>
-      <c r="C541" s="1"/>
-      <c r="D541" s="1"/>
-      <c r="E541" s="1"/>
+      <c r="A541" t="s">
+        <v>87</v>
+      </c>
+      <c r="B541" t="s">
+        <v>59</v>
+      </c>
+      <c r="C541" t="s">
+        <v>60</v>
+      </c>
+      <c r="D541" t="s">
+        <v>0</v>
+      </c>
+      <c r="E541" t="s">
+        <v>1</v>
+      </c>
       <c r="F541" s="1"/>
       <c r="G541" s="1"/>
       <c r="H541" s="1"/>
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A542" s="1"/>
-      <c r="B542" s="1"/>
-      <c r="C542" s="1"/>
-      <c r="D542" s="1"/>
-      <c r="E542" s="1"/>
+      <c r="A542" t="s">
+        <v>85</v>
+      </c>
+      <c r="B542" t="s">
+        <v>71</v>
+      </c>
+      <c r="C542" t="s">
+        <v>72</v>
+      </c>
+      <c r="D542" t="s">
+        <v>2</v>
+      </c>
+      <c r="E542" t="s">
+        <v>1</v>
+      </c>
       <c r="F542" s="1"/>
       <c r="G542" s="1"/>
       <c r="H542" s="1"/>
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A543" s="1"/>
-      <c r="B543" s="1"/>
-      <c r="C543" s="1"/>
-      <c r="D543" s="1"/>
-      <c r="E543" s="1"/>
+      <c r="A543" t="s">
+        <v>85</v>
+      </c>
+      <c r="B543" t="s">
+        <v>71</v>
+      </c>
+      <c r="C543" t="s">
+        <v>72</v>
+      </c>
+      <c r="D543" t="s">
+        <v>0</v>
+      </c>
+      <c r="E543" t="s">
+        <v>1</v>
+      </c>
       <c r="F543" s="1"/>
       <c r="G543" s="1"/>
       <c r="H543" s="1"/>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>86</v>
+      </c>
+      <c r="B544" t="s">
+        <v>71</v>
+      </c>
+      <c r="C544" t="s">
+        <v>72</v>
+      </c>
+      <c r="D544" t="s">
+        <v>2</v>
+      </c>
+      <c r="E544" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>86</v>
+      </c>
+      <c r="B545" t="s">
+        <v>71</v>
+      </c>
+      <c r="C545" t="s">
+        <v>72</v>
+      </c>
+      <c r="D545" t="s">
+        <v>0</v>
+      </c>
+      <c r="E545" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>87</v>
+      </c>
+      <c r="B546" t="s">
+        <v>71</v>
+      </c>
+      <c r="C546" t="s">
+        <v>72</v>
+      </c>
+      <c r="D546" t="s">
+        <v>2</v>
+      </c>
+      <c r="E546" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>87</v>
+      </c>
+      <c r="B547" t="s">
+        <v>71</v>
+      </c>
+      <c r="C547" t="s">
+        <v>72</v>
+      </c>
+      <c r="D547" t="s">
+        <v>0</v>
+      </c>
+      <c r="E547" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>85</v>
+      </c>
+      <c r="B548" t="s">
+        <v>61</v>
+      </c>
+      <c r="C548" t="s">
+        <v>62</v>
+      </c>
+      <c r="D548" t="s">
+        <v>2</v>
+      </c>
+      <c r="E548" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>85</v>
+      </c>
+      <c r="B549" t="s">
+        <v>61</v>
+      </c>
+      <c r="C549" t="s">
+        <v>62</v>
+      </c>
+      <c r="D549" t="s">
+        <v>0</v>
+      </c>
+      <c r="E549" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>86</v>
+      </c>
+      <c r="B550" t="s">
+        <v>61</v>
+      </c>
+      <c r="C550" t="s">
+        <v>62</v>
+      </c>
+      <c r="D550" t="s">
+        <v>2</v>
+      </c>
+      <c r="E550" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>86</v>
+      </c>
+      <c r="B551" t="s">
+        <v>61</v>
+      </c>
+      <c r="C551" t="s">
+        <v>62</v>
+      </c>
+      <c r="D551" t="s">
+        <v>0</v>
+      </c>
+      <c r="E551" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>87</v>
+      </c>
+      <c r="B552" t="s">
+        <v>61</v>
+      </c>
+      <c r="C552" t="s">
+        <v>62</v>
+      </c>
+      <c r="D552" t="s">
+        <v>2</v>
+      </c>
+      <c r="E552" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>87</v>
+      </c>
+      <c r="B553" t="s">
+        <v>61</v>
+      </c>
+      <c r="C553" t="s">
+        <v>62</v>
+      </c>
+      <c r="D553" t="s">
+        <v>0</v>
+      </c>
+      <c r="E553" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>85</v>
+      </c>
+      <c r="B554" t="s">
+        <v>63</v>
+      </c>
+      <c r="C554" t="s">
+        <v>64</v>
+      </c>
+      <c r="D554" t="s">
+        <v>2</v>
+      </c>
+      <c r="E554" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>85</v>
+      </c>
+      <c r="B555" t="s">
+        <v>63</v>
+      </c>
+      <c r="C555" t="s">
+        <v>64</v>
+      </c>
+      <c r="D555" t="s">
+        <v>0</v>
+      </c>
+      <c r="E555" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>86</v>
+      </c>
+      <c r="B556" t="s">
+        <v>63</v>
+      </c>
+      <c r="C556" t="s">
+        <v>64</v>
+      </c>
+      <c r="D556" t="s">
+        <v>2</v>
+      </c>
+      <c r="E556" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>86</v>
+      </c>
+      <c r="B557" t="s">
+        <v>63</v>
+      </c>
+      <c r="C557" t="s">
+        <v>64</v>
+      </c>
+      <c r="D557" t="s">
+        <v>0</v>
+      </c>
+      <c r="E557" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>87</v>
+      </c>
+      <c r="B558" t="s">
+        <v>63</v>
+      </c>
+      <c r="C558" t="s">
+        <v>64</v>
+      </c>
+      <c r="D558" t="s">
+        <v>2</v>
+      </c>
+      <c r="E558" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>87</v>
+      </c>
+      <c r="B559" t="s">
+        <v>63</v>
+      </c>
+      <c r="C559" t="s">
+        <v>64</v>
+      </c>
+      <c r="D559" t="s">
+        <v>0</v>
+      </c>
+      <c r="E559" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>85</v>
+      </c>
+      <c r="B560" t="s">
+        <v>21</v>
+      </c>
+      <c r="C560" t="s">
+        <v>22</v>
+      </c>
+      <c r="D560" t="s">
+        <v>2</v>
+      </c>
+      <c r="E560" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>85</v>
+      </c>
+      <c r="B561" t="s">
+        <v>21</v>
+      </c>
+      <c r="C561" t="s">
+        <v>22</v>
+      </c>
+      <c r="D561" t="s">
+        <v>0</v>
+      </c>
+      <c r="E561" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>86</v>
+      </c>
+      <c r="B562" t="s">
+        <v>21</v>
+      </c>
+      <c r="C562" t="s">
+        <v>22</v>
+      </c>
+      <c r="D562" t="s">
+        <v>2</v>
+      </c>
+      <c r="E562" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>86</v>
+      </c>
+      <c r="B563" t="s">
+        <v>21</v>
+      </c>
+      <c r="C563" t="s">
+        <v>22</v>
+      </c>
+      <c r="D563" t="s">
+        <v>0</v>
+      </c>
+      <c r="E563" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>87</v>
+      </c>
+      <c r="B564" t="s">
+        <v>21</v>
+      </c>
+      <c r="C564" t="s">
+        <v>22</v>
+      </c>
+      <c r="D564" t="s">
+        <v>2</v>
+      </c>
+      <c r="E564" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>87</v>
+      </c>
+      <c r="B565" t="s">
+        <v>21</v>
+      </c>
+      <c r="C565" t="s">
+        <v>22</v>
+      </c>
+      <c r="D565" t="s">
+        <v>0</v>
+      </c>
+      <c r="E565" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>85</v>
+      </c>
+      <c r="B566" t="s">
+        <v>23</v>
+      </c>
+      <c r="C566" t="s">
+        <v>24</v>
+      </c>
+      <c r="D566" t="s">
+        <v>2</v>
+      </c>
+      <c r="E566" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>85</v>
+      </c>
+      <c r="B567" t="s">
+        <v>23</v>
+      </c>
+      <c r="C567" t="s">
+        <v>24</v>
+      </c>
+      <c r="D567" t="s">
+        <v>0</v>
+      </c>
+      <c r="E567" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>86</v>
+      </c>
+      <c r="B568" t="s">
+        <v>23</v>
+      </c>
+      <c r="C568" t="s">
+        <v>24</v>
+      </c>
+      <c r="D568" t="s">
+        <v>2</v>
+      </c>
+      <c r="E568" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>86</v>
+      </c>
+      <c r="B569" t="s">
+        <v>23</v>
+      </c>
+      <c r="C569" t="s">
+        <v>24</v>
+      </c>
+      <c r="D569" t="s">
+        <v>0</v>
+      </c>
+      <c r="E569" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>87</v>
+      </c>
+      <c r="B570" t="s">
+        <v>23</v>
+      </c>
+      <c r="C570" t="s">
+        <v>24</v>
+      </c>
+      <c r="D570" t="s">
+        <v>2</v>
+      </c>
+      <c r="E570" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>87</v>
+      </c>
+      <c r="B571" t="s">
+        <v>23</v>
+      </c>
+      <c r="C571" t="s">
+        <v>24</v>
+      </c>
+      <c r="D571" t="s">
+        <v>0</v>
+      </c>
+      <c r="E571" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>85</v>
+      </c>
+      <c r="B572" t="s">
+        <v>73</v>
+      </c>
+      <c r="C572" t="s">
+        <v>74</v>
+      </c>
+      <c r="D572" t="s">
+        <v>2</v>
+      </c>
+      <c r="E572" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>85</v>
+      </c>
+      <c r="B573" t="s">
+        <v>73</v>
+      </c>
+      <c r="C573" t="s">
+        <v>74</v>
+      </c>
+      <c r="D573" t="s">
+        <v>0</v>
+      </c>
+      <c r="E573" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>86</v>
+      </c>
+      <c r="B574" t="s">
+        <v>73</v>
+      </c>
+      <c r="C574" t="s">
+        <v>74</v>
+      </c>
+      <c r="D574" t="s">
+        <v>2</v>
+      </c>
+      <c r="E574" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>86</v>
+      </c>
+      <c r="B575" t="s">
+        <v>73</v>
+      </c>
+      <c r="C575" t="s">
+        <v>74</v>
+      </c>
+      <c r="D575" t="s">
+        <v>0</v>
+      </c>
+      <c r="E575" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>87</v>
+      </c>
+      <c r="B576" t="s">
+        <v>73</v>
+      </c>
+      <c r="C576" t="s">
+        <v>74</v>
+      </c>
+      <c r="D576" t="s">
+        <v>2</v>
+      </c>
+      <c r="E576" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>87</v>
+      </c>
+      <c r="B577" t="s">
+        <v>73</v>
+      </c>
+      <c r="C577" t="s">
+        <v>74</v>
+      </c>
+      <c r="D577" t="s">
+        <v>0</v>
+      </c>
+      <c r="E577" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>85</v>
+      </c>
+      <c r="B578" t="s">
+        <v>25</v>
+      </c>
+      <c r="C578" t="s">
+        <v>26</v>
+      </c>
+      <c r="D578" t="s">
+        <v>2</v>
+      </c>
+      <c r="E578" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>85</v>
+      </c>
+      <c r="B579" t="s">
+        <v>25</v>
+      </c>
+      <c r="C579" t="s">
+        <v>26</v>
+      </c>
+      <c r="D579" t="s">
+        <v>0</v>
+      </c>
+      <c r="E579" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>86</v>
+      </c>
+      <c r="B580" t="s">
+        <v>25</v>
+      </c>
+      <c r="C580" t="s">
+        <v>26</v>
+      </c>
+      <c r="D580" t="s">
+        <v>2</v>
+      </c>
+      <c r="E580" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>86</v>
+      </c>
+      <c r="B581" t="s">
+        <v>25</v>
+      </c>
+      <c r="C581" t="s">
+        <v>26</v>
+      </c>
+      <c r="D581" t="s">
+        <v>0</v>
+      </c>
+      <c r="E581" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>87</v>
+      </c>
+      <c r="B582" t="s">
+        <v>25</v>
+      </c>
+      <c r="C582" t="s">
+        <v>26</v>
+      </c>
+      <c r="D582" t="s">
+        <v>2</v>
+      </c>
+      <c r="E582" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>87</v>
+      </c>
+      <c r="B583" t="s">
+        <v>25</v>
+      </c>
+      <c r="C583" t="s">
+        <v>26</v>
+      </c>
+      <c r="D583" t="s">
+        <v>0</v>
+      </c>
+      <c r="E583" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>85</v>
+      </c>
+      <c r="B584" t="s">
+        <v>77</v>
+      </c>
+      <c r="C584" t="s">
+        <v>78</v>
+      </c>
+      <c r="D584" t="s">
+        <v>2</v>
+      </c>
+      <c r="E584" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>85</v>
+      </c>
+      <c r="B585" t="s">
+        <v>77</v>
+      </c>
+      <c r="C585" t="s">
+        <v>78</v>
+      </c>
+      <c r="D585" t="s">
+        <v>0</v>
+      </c>
+      <c r="E585" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>86</v>
+      </c>
+      <c r="B586" t="s">
+        <v>77</v>
+      </c>
+      <c r="C586" t="s">
+        <v>78</v>
+      </c>
+      <c r="D586" t="s">
+        <v>2</v>
+      </c>
+      <c r="E586" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>86</v>
+      </c>
+      <c r="B587" t="s">
+        <v>77</v>
+      </c>
+      <c r="C587" t="s">
+        <v>78</v>
+      </c>
+      <c r="D587" t="s">
+        <v>0</v>
+      </c>
+      <c r="E587" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>87</v>
+      </c>
+      <c r="B588" t="s">
+        <v>77</v>
+      </c>
+      <c r="C588" t="s">
+        <v>78</v>
+      </c>
+      <c r="D588" t="s">
+        <v>2</v>
+      </c>
+      <c r="E588" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>87</v>
+      </c>
+      <c r="B589" t="s">
+        <v>77</v>
+      </c>
+      <c r="C589" t="s">
+        <v>78</v>
+      </c>
+      <c r="D589" t="s">
+        <v>0</v>
+      </c>
+      <c r="E589" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>85</v>
+      </c>
+      <c r="B590" t="s">
+        <v>27</v>
+      </c>
+      <c r="C590" t="s">
+        <v>28</v>
+      </c>
+      <c r="D590" t="s">
+        <v>2</v>
+      </c>
+      <c r="E590" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>85</v>
+      </c>
+      <c r="B591" t="s">
+        <v>27</v>
+      </c>
+      <c r="C591" t="s">
+        <v>28</v>
+      </c>
+      <c r="D591" t="s">
+        <v>0</v>
+      </c>
+      <c r="E591" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>86</v>
+      </c>
+      <c r="B592" t="s">
+        <v>27</v>
+      </c>
+      <c r="C592" t="s">
+        <v>28</v>
+      </c>
+      <c r="D592" t="s">
+        <v>2</v>
+      </c>
+      <c r="E592" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>86</v>
+      </c>
+      <c r="B593" t="s">
+        <v>27</v>
+      </c>
+      <c r="C593" t="s">
+        <v>28</v>
+      </c>
+      <c r="D593" t="s">
+        <v>0</v>
+      </c>
+      <c r="E593" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>87</v>
+      </c>
+      <c r="B594" t="s">
+        <v>27</v>
+      </c>
+      <c r="C594" t="s">
+        <v>28</v>
+      </c>
+      <c r="D594" t="s">
+        <v>2</v>
+      </c>
+      <c r="E594" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>87</v>
+      </c>
+      <c r="B595" t="s">
+        <v>27</v>
+      </c>
+      <c r="C595" t="s">
+        <v>28</v>
+      </c>
+      <c r="D595" t="s">
+        <v>0</v>
+      </c>
+      <c r="E595" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>85</v>
+      </c>
+      <c r="B596" t="s">
+        <v>29</v>
+      </c>
+      <c r="C596" t="s">
+        <v>30</v>
+      </c>
+      <c r="D596" t="s">
+        <v>2</v>
+      </c>
+      <c r="E596" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>85</v>
+      </c>
+      <c r="B597" t="s">
+        <v>29</v>
+      </c>
+      <c r="C597" t="s">
+        <v>30</v>
+      </c>
+      <c r="D597" t="s">
+        <v>0</v>
+      </c>
+      <c r="E597" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>86</v>
+      </c>
+      <c r="B598" t="s">
+        <v>29</v>
+      </c>
+      <c r="C598" t="s">
+        <v>30</v>
+      </c>
+      <c r="D598" t="s">
+        <v>2</v>
+      </c>
+      <c r="E598" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>86</v>
+      </c>
+      <c r="B599" t="s">
+        <v>29</v>
+      </c>
+      <c r="C599" t="s">
+        <v>30</v>
+      </c>
+      <c r="D599" t="s">
+        <v>0</v>
+      </c>
+      <c r="E599" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>87</v>
+      </c>
+      <c r="B600" t="s">
+        <v>29</v>
+      </c>
+      <c r="C600" t="s">
+        <v>30</v>
+      </c>
+      <c r="D600" t="s">
+        <v>2</v>
+      </c>
+      <c r="E600" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>87</v>
+      </c>
+      <c r="B601" t="s">
+        <v>29</v>
+      </c>
+      <c r="C601" t="s">
+        <v>30</v>
+      </c>
+      <c r="D601" t="s">
+        <v>0</v>
+      </c>
+      <c r="E601" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>85</v>
+      </c>
+      <c r="B602" t="s">
+        <v>33</v>
+      </c>
+      <c r="C602" t="s">
+        <v>34</v>
+      </c>
+      <c r="D602" t="s">
+        <v>2</v>
+      </c>
+      <c r="E602" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>85</v>
+      </c>
+      <c r="B603" t="s">
+        <v>33</v>
+      </c>
+      <c r="C603" t="s">
+        <v>34</v>
+      </c>
+      <c r="D603" t="s">
+        <v>0</v>
+      </c>
+      <c r="E603" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>86</v>
+      </c>
+      <c r="B604" t="s">
+        <v>33</v>
+      </c>
+      <c r="C604" t="s">
+        <v>34</v>
+      </c>
+      <c r="D604" t="s">
+        <v>2</v>
+      </c>
+      <c r="E604" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>86</v>
+      </c>
+      <c r="B605" t="s">
+        <v>33</v>
+      </c>
+      <c r="C605" t="s">
+        <v>34</v>
+      </c>
+      <c r="D605" t="s">
+        <v>0</v>
+      </c>
+      <c r="E605" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>87</v>
+      </c>
+      <c r="B606" t="s">
+        <v>33</v>
+      </c>
+      <c r="C606" t="s">
+        <v>34</v>
+      </c>
+      <c r="D606" t="s">
+        <v>2</v>
+      </c>
+      <c r="E606" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>87</v>
+      </c>
+      <c r="B607" t="s">
+        <v>33</v>
+      </c>
+      <c r="C607" t="s">
+        <v>34</v>
+      </c>
+      <c r="D607" t="s">
+        <v>0</v>
+      </c>
+      <c r="E607" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>85</v>
+      </c>
+      <c r="B608" t="s">
+        <v>81</v>
+      </c>
+      <c r="C608" t="s">
+        <v>82</v>
+      </c>
+      <c r="D608" t="s">
+        <v>2</v>
+      </c>
+      <c r="E608" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>85</v>
+      </c>
+      <c r="B609" t="s">
+        <v>81</v>
+      </c>
+      <c r="C609" t="s">
+        <v>82</v>
+      </c>
+      <c r="D609" t="s">
+        <v>0</v>
+      </c>
+      <c r="E609" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>86</v>
+      </c>
+      <c r="B610" t="s">
+        <v>81</v>
+      </c>
+      <c r="C610" t="s">
+        <v>82</v>
+      </c>
+      <c r="D610" t="s">
+        <v>2</v>
+      </c>
+      <c r="E610" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>86</v>
+      </c>
+      <c r="B611" t="s">
+        <v>81</v>
+      </c>
+      <c r="C611" t="s">
+        <v>82</v>
+      </c>
+      <c r="D611" t="s">
+        <v>0</v>
+      </c>
+      <c r="E611" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>87</v>
+      </c>
+      <c r="B612" t="s">
+        <v>81</v>
+      </c>
+      <c r="C612" t="s">
+        <v>82</v>
+      </c>
+      <c r="D612" t="s">
+        <v>2</v>
+      </c>
+      <c r="E612" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>87</v>
+      </c>
+      <c r="B613" t="s">
+        <v>81</v>
+      </c>
+      <c r="C613" t="s">
+        <v>82</v>
+      </c>
+      <c r="D613" t="s">
+        <v>0</v>
+      </c>
+      <c r="E613" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>85</v>
+      </c>
+      <c r="B614" t="s">
+        <v>79</v>
+      </c>
+      <c r="C614" t="s">
+        <v>80</v>
+      </c>
+      <c r="D614" t="s">
+        <v>2</v>
+      </c>
+      <c r="E614" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>85</v>
+      </c>
+      <c r="B615" t="s">
+        <v>79</v>
+      </c>
+      <c r="C615" t="s">
+        <v>80</v>
+      </c>
+      <c r="D615" t="s">
+        <v>0</v>
+      </c>
+      <c r="E615" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>86</v>
+      </c>
+      <c r="B616" t="s">
+        <v>79</v>
+      </c>
+      <c r="C616" t="s">
+        <v>80</v>
+      </c>
+      <c r="D616" t="s">
+        <v>2</v>
+      </c>
+      <c r="E616" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>86</v>
+      </c>
+      <c r="B617" t="s">
+        <v>79</v>
+      </c>
+      <c r="C617" t="s">
+        <v>80</v>
+      </c>
+      <c r="D617" t="s">
+        <v>0</v>
+      </c>
+      <c r="E617" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>87</v>
+      </c>
+      <c r="B618" t="s">
+        <v>79</v>
+      </c>
+      <c r="C618" t="s">
+        <v>80</v>
+      </c>
+      <c r="D618" t="s">
+        <v>2</v>
+      </c>
+      <c r="E618" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>87</v>
+      </c>
+      <c r="B619" t="s">
+        <v>79</v>
+      </c>
+      <c r="C619" t="s">
+        <v>80</v>
+      </c>
+      <c r="D619" t="s">
+        <v>0</v>
+      </c>
+      <c r="E619" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>85</v>
+      </c>
+      <c r="B620" t="s">
+        <v>35</v>
+      </c>
+      <c r="C620" t="s">
+        <v>36</v>
+      </c>
+      <c r="D620" t="s">
+        <v>2</v>
+      </c>
+      <c r="E620" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>85</v>
+      </c>
+      <c r="B621" t="s">
+        <v>35</v>
+      </c>
+      <c r="C621" t="s">
+        <v>36</v>
+      </c>
+      <c r="D621" t="s">
+        <v>0</v>
+      </c>
+      <c r="E621" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>86</v>
+      </c>
+      <c r="B622" t="s">
+        <v>35</v>
+      </c>
+      <c r="C622" t="s">
+        <v>36</v>
+      </c>
+      <c r="D622" t="s">
+        <v>2</v>
+      </c>
+      <c r="E622" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>86</v>
+      </c>
+      <c r="B623" t="s">
+        <v>35</v>
+      </c>
+      <c r="C623" t="s">
+        <v>36</v>
+      </c>
+      <c r="D623" t="s">
+        <v>0</v>
+      </c>
+      <c r="E623" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>87</v>
+      </c>
+      <c r="B624" t="s">
+        <v>35</v>
+      </c>
+      <c r="C624" t="s">
+        <v>36</v>
+      </c>
+      <c r="D624" t="s">
+        <v>2</v>
+      </c>
+      <c r="E624" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>87</v>
+      </c>
+      <c r="B625" t="s">
+        <v>35</v>
+      </c>
+      <c r="C625" t="s">
+        <v>36</v>
+      </c>
+      <c r="D625" t="s">
+        <v>0</v>
+      </c>
+      <c r="E625" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>85</v>
+      </c>
+      <c r="B626" t="s">
+        <v>37</v>
+      </c>
+      <c r="C626" t="s">
+        <v>38</v>
+      </c>
+      <c r="D626" t="s">
+        <v>2</v>
+      </c>
+      <c r="E626" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
+        <v>85</v>
+      </c>
+      <c r="B627" t="s">
+        <v>37</v>
+      </c>
+      <c r="C627" t="s">
+        <v>38</v>
+      </c>
+      <c r="D627" t="s">
+        <v>0</v>
+      </c>
+      <c r="E627" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
+        <v>86</v>
+      </c>
+      <c r="B628" t="s">
+        <v>37</v>
+      </c>
+      <c r="C628" t="s">
+        <v>38</v>
+      </c>
+      <c r="D628" t="s">
+        <v>2</v>
+      </c>
+      <c r="E628" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A629" t="s">
+        <v>86</v>
+      </c>
+      <c r="B629" t="s">
+        <v>37</v>
+      </c>
+      <c r="C629" t="s">
+        <v>38</v>
+      </c>
+      <c r="D629" t="s">
+        <v>0</v>
+      </c>
+      <c r="E629" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
+        <v>87</v>
+      </c>
+      <c r="B630" t="s">
+        <v>37</v>
+      </c>
+      <c r="C630" t="s">
+        <v>38</v>
+      </c>
+      <c r="D630" t="s">
+        <v>2</v>
+      </c>
+      <c r="E630" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A631" t="s">
+        <v>87</v>
+      </c>
+      <c r="B631" t="s">
+        <v>37</v>
+      </c>
+      <c r="C631" t="s">
+        <v>38</v>
+      </c>
+      <c r="D631" t="s">
+        <v>0</v>
+      </c>
+      <c r="E631" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A632" t="s">
+        <v>85</v>
+      </c>
+      <c r="B632" t="s">
+        <v>39</v>
+      </c>
+      <c r="C632" t="s">
+        <v>40</v>
+      </c>
+      <c r="D632" t="s">
+        <v>2</v>
+      </c>
+      <c r="E632" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A633" t="s">
+        <v>85</v>
+      </c>
+      <c r="B633" t="s">
+        <v>39</v>
+      </c>
+      <c r="C633" t="s">
+        <v>40</v>
+      </c>
+      <c r="D633" t="s">
+        <v>0</v>
+      </c>
+      <c r="E633" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
+        <v>86</v>
+      </c>
+      <c r="B634" t="s">
+        <v>39</v>
+      </c>
+      <c r="C634" t="s">
+        <v>40</v>
+      </c>
+      <c r="D634" t="s">
+        <v>2</v>
+      </c>
+      <c r="E634" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
+        <v>86</v>
+      </c>
+      <c r="B635" t="s">
+        <v>39</v>
+      </c>
+      <c r="C635" t="s">
+        <v>40</v>
+      </c>
+      <c r="D635" t="s">
+        <v>0</v>
+      </c>
+      <c r="E635" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
+        <v>87</v>
+      </c>
+      <c r="B636" t="s">
+        <v>39</v>
+      </c>
+      <c r="C636" t="s">
+        <v>40</v>
+      </c>
+      <c r="D636" t="s">
+        <v>2</v>
+      </c>
+      <c r="E636" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>87</v>
+      </c>
+      <c r="B637" t="s">
+        <v>39</v>
+      </c>
+      <c r="C637" t="s">
+        <v>40</v>
+      </c>
+      <c r="D637" t="s">
+        <v>0</v>
+      </c>
+      <c r="E637" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
+        <v>85</v>
+      </c>
+      <c r="B638" t="s">
+        <v>41</v>
+      </c>
+      <c r="C638" t="s">
+        <v>42</v>
+      </c>
+      <c r="D638" t="s">
+        <v>2</v>
+      </c>
+      <c r="E638" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A639" t="s">
+        <v>85</v>
+      </c>
+      <c r="B639" t="s">
+        <v>41</v>
+      </c>
+      <c r="C639" t="s">
+        <v>42</v>
+      </c>
+      <c r="D639" t="s">
+        <v>0</v>
+      </c>
+      <c r="E639" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A640" t="s">
+        <v>86</v>
+      </c>
+      <c r="B640" t="s">
+        <v>41</v>
+      </c>
+      <c r="C640" t="s">
+        <v>42</v>
+      </c>
+      <c r="D640" t="s">
+        <v>2</v>
+      </c>
+      <c r="E640" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
+        <v>86</v>
+      </c>
+      <c r="B641" t="s">
+        <v>41</v>
+      </c>
+      <c r="C641" t="s">
+        <v>42</v>
+      </c>
+      <c r="D641" t="s">
+        <v>0</v>
+      </c>
+      <c r="E641" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A642" t="s">
+        <v>87</v>
+      </c>
+      <c r="B642" t="s">
+        <v>41</v>
+      </c>
+      <c r="C642" t="s">
+        <v>42</v>
+      </c>
+      <c r="D642" t="s">
+        <v>2</v>
+      </c>
+      <c r="E642" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
+        <v>87</v>
+      </c>
+      <c r="B643" t="s">
+        <v>41</v>
+      </c>
+      <c r="C643" t="s">
+        <v>42</v>
+      </c>
+      <c r="D643" t="s">
+        <v>0</v>
+      </c>
+      <c r="E643" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A644" t="s">
+        <v>85</v>
+      </c>
+      <c r="B644" t="s">
+        <v>31</v>
+      </c>
+      <c r="C644" t="s">
+        <v>32</v>
+      </c>
+      <c r="D644" t="s">
+        <v>2</v>
+      </c>
+      <c r="E644" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>85</v>
+      </c>
+      <c r="B645" t="s">
+        <v>31</v>
+      </c>
+      <c r="C645" t="s">
+        <v>32</v>
+      </c>
+      <c r="D645" t="s">
+        <v>0</v>
+      </c>
+      <c r="E645" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>86</v>
+      </c>
+      <c r="B646" t="s">
+        <v>31</v>
+      </c>
+      <c r="C646" t="s">
+        <v>32</v>
+      </c>
+      <c r="D646" t="s">
+        <v>2</v>
+      </c>
+      <c r="E646" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
+        <v>86</v>
+      </c>
+      <c r="B647" t="s">
+        <v>31</v>
+      </c>
+      <c r="C647" t="s">
+        <v>32</v>
+      </c>
+      <c r="D647" t="s">
+        <v>0</v>
+      </c>
+      <c r="E647" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
+        <v>87</v>
+      </c>
+      <c r="B648" t="s">
+        <v>31</v>
+      </c>
+      <c r="C648" t="s">
+        <v>32</v>
+      </c>
+      <c r="D648" t="s">
+        <v>2</v>
+      </c>
+      <c r="E648" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
+        <v>87</v>
+      </c>
+      <c r="B649" t="s">
+        <v>31</v>
+      </c>
+      <c r="C649" t="s">
+        <v>32</v>
+      </c>
+      <c r="D649" t="s">
+        <v>0</v>
+      </c>
+      <c r="E649" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>85</v>
+      </c>
+      <c r="B650" t="s">
+        <v>43</v>
+      </c>
+      <c r="C650" t="s">
+        <v>44</v>
+      </c>
+      <c r="D650" t="s">
+        <v>2</v>
+      </c>
+      <c r="E650" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
+        <v>85</v>
+      </c>
+      <c r="B651" t="s">
+        <v>43</v>
+      </c>
+      <c r="C651" t="s">
+        <v>44</v>
+      </c>
+      <c r="D651" t="s">
+        <v>0</v>
+      </c>
+      <c r="E651" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A652" t="s">
+        <v>86</v>
+      </c>
+      <c r="B652" t="s">
+        <v>43</v>
+      </c>
+      <c r="C652" t="s">
+        <v>44</v>
+      </c>
+      <c r="D652" t="s">
+        <v>2</v>
+      </c>
+      <c r="E652" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
+        <v>86</v>
+      </c>
+      <c r="B653" t="s">
+        <v>43</v>
+      </c>
+      <c r="C653" t="s">
+        <v>44</v>
+      </c>
+      <c r="D653" t="s">
+        <v>0</v>
+      </c>
+      <c r="E653" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A654" t="s">
+        <v>87</v>
+      </c>
+      <c r="B654" t="s">
+        <v>43</v>
+      </c>
+      <c r="C654" t="s">
+        <v>44</v>
+      </c>
+      <c r="D654" t="s">
+        <v>2</v>
+      </c>
+      <c r="E654" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
+        <v>87</v>
+      </c>
+      <c r="B655" t="s">
+        <v>43</v>
+      </c>
+      <c r="C655" t="s">
+        <v>44</v>
+      </c>
+      <c r="D655" t="s">
+        <v>0</v>
+      </c>
+      <c r="E655" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>85</v>
+      </c>
+      <c r="B656" t="s">
+        <v>75</v>
+      </c>
+      <c r="C656" t="s">
+        <v>76</v>
+      </c>
+      <c r="D656" t="s">
+        <v>2</v>
+      </c>
+      <c r="E656" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>85</v>
+      </c>
+      <c r="B657" t="s">
+        <v>75</v>
+      </c>
+      <c r="C657" t="s">
+        <v>76</v>
+      </c>
+      <c r="D657" t="s">
+        <v>0</v>
+      </c>
+      <c r="E657" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>86</v>
+      </c>
+      <c r="B658" t="s">
+        <v>75</v>
+      </c>
+      <c r="C658" t="s">
+        <v>76</v>
+      </c>
+      <c r="D658" t="s">
+        <v>2</v>
+      </c>
+      <c r="E658" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A659" t="s">
+        <v>86</v>
+      </c>
+      <c r="B659" t="s">
+        <v>75</v>
+      </c>
+      <c r="C659" t="s">
+        <v>76</v>
+      </c>
+      <c r="D659" t="s">
+        <v>0</v>
+      </c>
+      <c r="E659" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A660" t="s">
+        <v>87</v>
+      </c>
+      <c r="B660" t="s">
+        <v>75</v>
+      </c>
+      <c r="C660" t="s">
+        <v>76</v>
+      </c>
+      <c r="D660" t="s">
+        <v>2</v>
+      </c>
+      <c r="E660" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A661" t="s">
+        <v>87</v>
+      </c>
+      <c r="B661" t="s">
+        <v>75</v>
+      </c>
+      <c r="C661" t="s">
+        <v>76</v>
+      </c>
+      <c r="D661" t="s">
+        <v>0</v>
+      </c>
+      <c r="E661" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A662" t="s">
+        <v>85</v>
+      </c>
+      <c r="B662" t="s">
+        <v>45</v>
+      </c>
+      <c r="C662" t="s">
+        <v>46</v>
+      </c>
+      <c r="D662" t="s">
+        <v>2</v>
+      </c>
+      <c r="E662" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A663" t="s">
+        <v>85</v>
+      </c>
+      <c r="B663" t="s">
+        <v>45</v>
+      </c>
+      <c r="C663" t="s">
+        <v>46</v>
+      </c>
+      <c r="D663" t="s">
+        <v>0</v>
+      </c>
+      <c r="E663" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A664" t="s">
+        <v>86</v>
+      </c>
+      <c r="B664" t="s">
+        <v>45</v>
+      </c>
+      <c r="C664" t="s">
+        <v>46</v>
+      </c>
+      <c r="D664" t="s">
+        <v>2</v>
+      </c>
+      <c r="E664" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
+        <v>86</v>
+      </c>
+      <c r="B665" t="s">
+        <v>45</v>
+      </c>
+      <c r="C665" t="s">
+        <v>46</v>
+      </c>
+      <c r="D665" t="s">
+        <v>0</v>
+      </c>
+      <c r="E665" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
+        <v>87</v>
+      </c>
+      <c r="B666" t="s">
+        <v>45</v>
+      </c>
+      <c r="C666" t="s">
+        <v>46</v>
+      </c>
+      <c r="D666" t="s">
+        <v>2</v>
+      </c>
+      <c r="E666" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A667" t="s">
+        <v>87</v>
+      </c>
+      <c r="B667" t="s">
+        <v>45</v>
+      </c>
+      <c r="C667" t="s">
+        <v>46</v>
+      </c>
+      <c r="D667" t="s">
+        <v>0</v>
+      </c>
+      <c r="E667" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A668" t="s">
+        <v>85</v>
+      </c>
+      <c r="B668" t="s">
+        <v>83</v>
+      </c>
+      <c r="C668" t="s">
+        <v>84</v>
+      </c>
+      <c r="D668" t="s">
+        <v>2</v>
+      </c>
+      <c r="E668" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A669" t="s">
+        <v>85</v>
+      </c>
+      <c r="B669" t="s">
+        <v>83</v>
+      </c>
+      <c r="C669" t="s">
+        <v>84</v>
+      </c>
+      <c r="D669" t="s">
+        <v>0</v>
+      </c>
+      <c r="E669" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A670" t="s">
+        <v>86</v>
+      </c>
+      <c r="B670" t="s">
+        <v>83</v>
+      </c>
+      <c r="C670" t="s">
+        <v>84</v>
+      </c>
+      <c r="D670" t="s">
+        <v>2</v>
+      </c>
+      <c r="E670" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A671" t="s">
+        <v>86</v>
+      </c>
+      <c r="B671" t="s">
+        <v>83</v>
+      </c>
+      <c r="C671" t="s">
+        <v>84</v>
+      </c>
+      <c r="D671" t="s">
+        <v>0</v>
+      </c>
+      <c r="E671" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A672" t="s">
+        <v>87</v>
+      </c>
+      <c r="B672" t="s">
+        <v>83</v>
+      </c>
+      <c r="C672" t="s">
+        <v>84</v>
+      </c>
+      <c r="D672" t="s">
+        <v>2</v>
+      </c>
+      <c r="E672" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A673" t="s">
+        <v>87</v>
+      </c>
+      <c r="B673" t="s">
+        <v>83</v>
+      </c>
+      <c r="C673" t="s">
+        <v>84</v>
+      </c>
+      <c r="D673" t="s">
+        <v>0</v>
+      </c>
+      <c r="E673" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A674" t="s">
+        <v>85</v>
+      </c>
+      <c r="B674" t="s">
+        <v>65</v>
+      </c>
+      <c r="C674" t="s">
+        <v>66</v>
+      </c>
+      <c r="D674" t="s">
+        <v>2</v>
+      </c>
+      <c r="E674" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A675" t="s">
+        <v>85</v>
+      </c>
+      <c r="B675" t="s">
+        <v>65</v>
+      </c>
+      <c r="C675" t="s">
+        <v>66</v>
+      </c>
+      <c r="D675" t="s">
+        <v>0</v>
+      </c>
+      <c r="E675" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
+        <v>86</v>
+      </c>
+      <c r="B676" t="s">
+        <v>65</v>
+      </c>
+      <c r="C676" t="s">
+        <v>66</v>
+      </c>
+      <c r="D676" t="s">
+        <v>2</v>
+      </c>
+      <c r="E676" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A677" t="s">
+        <v>86</v>
+      </c>
+      <c r="B677" t="s">
+        <v>65</v>
+      </c>
+      <c r="C677" t="s">
+        <v>66</v>
+      </c>
+      <c r="D677" t="s">
+        <v>0</v>
+      </c>
+      <c r="E677" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A678" t="s">
+        <v>87</v>
+      </c>
+      <c r="B678" t="s">
+        <v>65</v>
+      </c>
+      <c r="C678" t="s">
+        <v>66</v>
+      </c>
+      <c r="D678" t="s">
+        <v>2</v>
+      </c>
+      <c r="E678" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A679" t="s">
+        <v>87</v>
+      </c>
+      <c r="B679" t="s">
+        <v>65</v>
+      </c>
+      <c r="C679" t="s">
+        <v>66</v>
+      </c>
+      <c r="D679" t="s">
+        <v>0</v>
+      </c>
+      <c r="E679" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A680" t="s">
+        <v>85</v>
+      </c>
+      <c r="B680" t="s">
+        <v>3</v>
+      </c>
+      <c r="C680" t="s">
+        <v>4</v>
+      </c>
+      <c r="D680" t="s">
+        <v>2</v>
+      </c>
+      <c r="E680" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
+        <v>85</v>
+      </c>
+      <c r="B681" t="s">
+        <v>3</v>
+      </c>
+      <c r="C681" t="s">
+        <v>4</v>
+      </c>
+      <c r="D681" t="s">
+        <v>0</v>
+      </c>
+      <c r="E681" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A682" t="s">
+        <v>86</v>
+      </c>
+      <c r="B682" t="s">
+        <v>3</v>
+      </c>
+      <c r="C682" t="s">
+        <v>4</v>
+      </c>
+      <c r="D682" t="s">
+        <v>2</v>
+      </c>
+      <c r="E682" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
+        <v>86</v>
+      </c>
+      <c r="B683" t="s">
+        <v>3</v>
+      </c>
+      <c r="C683" t="s">
+        <v>4</v>
+      </c>
+      <c r="D683" t="s">
+        <v>0</v>
+      </c>
+      <c r="E683" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A684" t="s">
+        <v>87</v>
+      </c>
+      <c r="B684" t="s">
+        <v>3</v>
+      </c>
+      <c r="C684" t="s">
+        <v>4</v>
+      </c>
+      <c r="D684" t="s">
+        <v>2</v>
+      </c>
+      <c r="E684" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A685" t="s">
+        <v>87</v>
+      </c>
+      <c r="B685" t="s">
+        <v>3</v>
+      </c>
+      <c r="C685" t="s">
+        <v>4</v>
+      </c>
+      <c r="D685" t="s">
+        <v>0</v>
+      </c>
+      <c r="E685" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A686" t="s">
+        <v>85</v>
+      </c>
+      <c r="B686" t="s">
+        <v>47</v>
+      </c>
+      <c r="C686" t="s">
+        <v>48</v>
+      </c>
+      <c r="D686" t="s">
+        <v>2</v>
+      </c>
+      <c r="E686" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A687" t="s">
+        <v>85</v>
+      </c>
+      <c r="B687" t="s">
+        <v>47</v>
+      </c>
+      <c r="C687" t="s">
+        <v>48</v>
+      </c>
+      <c r="D687" t="s">
+        <v>0</v>
+      </c>
+      <c r="E687" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A688" t="s">
+        <v>86</v>
+      </c>
+      <c r="B688" t="s">
+        <v>47</v>
+      </c>
+      <c r="C688" t="s">
+        <v>48</v>
+      </c>
+      <c r="D688" t="s">
+        <v>2</v>
+      </c>
+      <c r="E688" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>86</v>
+      </c>
+      <c r="B689" t="s">
+        <v>47</v>
+      </c>
+      <c r="C689" t="s">
+        <v>48</v>
+      </c>
+      <c r="D689" t="s">
+        <v>0</v>
+      </c>
+      <c r="E689" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
+        <v>87</v>
+      </c>
+      <c r="B690" t="s">
+        <v>47</v>
+      </c>
+      <c r="C690" t="s">
+        <v>48</v>
+      </c>
+      <c r="D690" t="s">
+        <v>2</v>
+      </c>
+      <c r="E690" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
+        <v>87</v>
+      </c>
+      <c r="B691" t="s">
+        <v>47</v>
+      </c>
+      <c r="C691" t="s">
+        <v>48</v>
+      </c>
+      <c r="D691" t="s">
+        <v>0</v>
+      </c>
+      <c r="E691" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
+        <v>85</v>
+      </c>
+      <c r="B692" t="s">
+        <v>49</v>
+      </c>
+      <c r="C692" t="s">
+        <v>50</v>
+      </c>
+      <c r="D692" t="s">
+        <v>2</v>
+      </c>
+      <c r="E692" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>85</v>
+      </c>
+      <c r="B693" t="s">
+        <v>49</v>
+      </c>
+      <c r="C693" t="s">
+        <v>50</v>
+      </c>
+      <c r="D693" t="s">
+        <v>0</v>
+      </c>
+      <c r="E693" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>86</v>
+      </c>
+      <c r="B694" t="s">
+        <v>49</v>
+      </c>
+      <c r="C694" t="s">
+        <v>50</v>
+      </c>
+      <c r="D694" t="s">
+        <v>2</v>
+      </c>
+      <c r="E694" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
+        <v>86</v>
+      </c>
+      <c r="B695" t="s">
+        <v>49</v>
+      </c>
+      <c r="C695" t="s">
+        <v>50</v>
+      </c>
+      <c r="D695" t="s">
+        <v>0</v>
+      </c>
+      <c r="E695" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>87</v>
+      </c>
+      <c r="B696" t="s">
+        <v>49</v>
+      </c>
+      <c r="C696" t="s">
+        <v>50</v>
+      </c>
+      <c r="D696" t="s">
+        <v>2</v>
+      </c>
+      <c r="E696" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
+        <v>87</v>
+      </c>
+      <c r="B697" t="s">
+        <v>49</v>
+      </c>
+      <c r="C697" t="s">
+        <v>50</v>
+      </c>
+      <c r="D697" t="s">
+        <v>0</v>
+      </c>
+      <c r="E697" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>85</v>
+      </c>
+      <c r="B698" t="s">
+        <v>51</v>
+      </c>
+      <c r="C698" t="s">
+        <v>52</v>
+      </c>
+      <c r="D698" t="s">
+        <v>2</v>
+      </c>
+      <c r="E698" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
+        <v>85</v>
+      </c>
+      <c r="B699" t="s">
+        <v>51</v>
+      </c>
+      <c r="C699" t="s">
+        <v>52</v>
+      </c>
+      <c r="D699" t="s">
+        <v>0</v>
+      </c>
+      <c r="E699" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>86</v>
+      </c>
+      <c r="B700" t="s">
+        <v>51</v>
+      </c>
+      <c r="C700" t="s">
+        <v>52</v>
+      </c>
+      <c r="D700" t="s">
+        <v>2</v>
+      </c>
+      <c r="E700" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>86</v>
+      </c>
+      <c r="B701" t="s">
+        <v>51</v>
+      </c>
+      <c r="C701" t="s">
+        <v>52</v>
+      </c>
+      <c r="D701" t="s">
+        <v>0</v>
+      </c>
+      <c r="E701" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>87</v>
+      </c>
+      <c r="B702" t="s">
+        <v>51</v>
+      </c>
+      <c r="C702" t="s">
+        <v>52</v>
+      </c>
+      <c r="D702" t="s">
+        <v>2</v>
+      </c>
+      <c r="E702" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>87</v>
+      </c>
+      <c r="B703" t="s">
+        <v>51</v>
+      </c>
+      <c r="C703" t="s">
+        <v>52</v>
+      </c>
+      <c r="D703" t="s">
+        <v>0</v>
+      </c>
+      <c r="E703" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>85</v>
+      </c>
+      <c r="B704" t="s">
+        <v>53</v>
+      </c>
+      <c r="C704" t="s">
+        <v>54</v>
+      </c>
+      <c r="D704" t="s">
+        <v>2</v>
+      </c>
+      <c r="E704" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>85</v>
+      </c>
+      <c r="B705" t="s">
+        <v>53</v>
+      </c>
+      <c r="C705" t="s">
+        <v>54</v>
+      </c>
+      <c r="D705" t="s">
+        <v>0</v>
+      </c>
+      <c r="E705" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A706" t="s">
+        <v>86</v>
+      </c>
+      <c r="B706" t="s">
+        <v>53</v>
+      </c>
+      <c r="C706" t="s">
+        <v>54</v>
+      </c>
+      <c r="D706" t="s">
+        <v>2</v>
+      </c>
+      <c r="E706" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A707" t="s">
+        <v>86</v>
+      </c>
+      <c r="B707" t="s">
+        <v>53</v>
+      </c>
+      <c r="C707" t="s">
+        <v>54</v>
+      </c>
+      <c r="D707" t="s">
+        <v>0</v>
+      </c>
+      <c r="E707" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>87</v>
+      </c>
+      <c r="B708" t="s">
+        <v>53</v>
+      </c>
+      <c r="C708" t="s">
+        <v>54</v>
+      </c>
+      <c r="D708" t="s">
+        <v>2</v>
+      </c>
+      <c r="E708" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A709" t="s">
+        <v>87</v>
+      </c>
+      <c r="B709" t="s">
+        <v>53</v>
+      </c>
+      <c r="C709" t="s">
+        <v>54</v>
+      </c>
+      <c r="D709" t="s">
+        <v>0</v>
+      </c>
+      <c r="E709" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>85</v>
+      </c>
+      <c r="B710" t="s">
+        <v>55</v>
+      </c>
+      <c r="C710" t="s">
+        <v>56</v>
+      </c>
+      <c r="D710" t="s">
+        <v>2</v>
+      </c>
+      <c r="E710" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A711" t="s">
+        <v>85</v>
+      </c>
+      <c r="B711" t="s">
+        <v>55</v>
+      </c>
+      <c r="C711" t="s">
+        <v>56</v>
+      </c>
+      <c r="D711" t="s">
+        <v>0</v>
+      </c>
+      <c r="E711" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A712" t="s">
+        <v>86</v>
+      </c>
+      <c r="B712" t="s">
+        <v>55</v>
+      </c>
+      <c r="C712" t="s">
+        <v>56</v>
+      </c>
+      <c r="D712" t="s">
+        <v>2</v>
+      </c>
+      <c r="E712" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A713" t="s">
+        <v>86</v>
+      </c>
+      <c r="B713" t="s">
+        <v>55</v>
+      </c>
+      <c r="C713" t="s">
+        <v>56</v>
+      </c>
+      <c r="D713" t="s">
+        <v>0</v>
+      </c>
+      <c r="E713" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A714" t="s">
+        <v>87</v>
+      </c>
+      <c r="B714" t="s">
+        <v>55</v>
+      </c>
+      <c r="C714" t="s">
+        <v>56</v>
+      </c>
+      <c r="D714" t="s">
+        <v>2</v>
+      </c>
+      <c r="E714" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A715" t="s">
+        <v>87</v>
+      </c>
+      <c r="B715" t="s">
+        <v>55</v>
+      </c>
+      <c r="C715" t="s">
+        <v>56</v>
+      </c>
+      <c r="D715" t="s">
+        <v>0</v>
+      </c>
+      <c r="E715" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>85</v>
+      </c>
+      <c r="B716" t="s">
+        <v>67</v>
+      </c>
+      <c r="C716" t="s">
+        <v>68</v>
+      </c>
+      <c r="D716" t="s">
+        <v>2</v>
+      </c>
+      <c r="E716" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>85</v>
+      </c>
+      <c r="B717" t="s">
+        <v>67</v>
+      </c>
+      <c r="C717" t="s">
+        <v>68</v>
+      </c>
+      <c r="D717" t="s">
+        <v>0</v>
+      </c>
+      <c r="E717" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>86</v>
+      </c>
+      <c r="B718" t="s">
+        <v>67</v>
+      </c>
+      <c r="C718" t="s">
+        <v>68</v>
+      </c>
+      <c r="D718" t="s">
+        <v>2</v>
+      </c>
+      <c r="E718" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>86</v>
+      </c>
+      <c r="B719" t="s">
+        <v>67</v>
+      </c>
+      <c r="C719" t="s">
+        <v>68</v>
+      </c>
+      <c r="D719" t="s">
+        <v>0</v>
+      </c>
+      <c r="E719" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A720" t="s">
+        <v>87</v>
+      </c>
+      <c r="B720" t="s">
+        <v>67</v>
+      </c>
+      <c r="C720" t="s">
+        <v>68</v>
+      </c>
+      <c r="D720" t="s">
+        <v>2</v>
+      </c>
+      <c r="E720" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A721" t="s">
+        <v>87</v>
+      </c>
+      <c r="B721" t="s">
+        <v>67</v>
+      </c>
+      <c r="C721" t="s">
+        <v>68</v>
+      </c>
+      <c r="D721" t="s">
+        <v>0</v>
+      </c>
+      <c r="E721" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
+        <v>85</v>
+      </c>
+      <c r="B722" t="s">
+        <v>69</v>
+      </c>
+      <c r="C722" t="s">
+        <v>70</v>
+      </c>
+      <c r="D722" t="s">
+        <v>2</v>
+      </c>
+      <c r="E722" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>85</v>
+      </c>
+      <c r="B723" t="s">
+        <v>69</v>
+      </c>
+      <c r="C723" t="s">
+        <v>70</v>
+      </c>
+      <c r="D723" t="s">
+        <v>0</v>
+      </c>
+      <c r="E723" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>86</v>
+      </c>
+      <c r="B724" t="s">
+        <v>69</v>
+      </c>
+      <c r="C724" t="s">
+        <v>70</v>
+      </c>
+      <c r="D724" t="s">
+        <v>2</v>
+      </c>
+      <c r="E724" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>86</v>
+      </c>
+      <c r="B725" t="s">
+        <v>69</v>
+      </c>
+      <c r="C725" t="s">
+        <v>70</v>
+      </c>
+      <c r="D725" t="s">
+        <v>0</v>
+      </c>
+      <c r="E725" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>87</v>
+      </c>
+      <c r="B726" t="s">
+        <v>69</v>
+      </c>
+      <c r="C726" t="s">
+        <v>70</v>
+      </c>
+      <c r="D726" t="s">
+        <v>2</v>
+      </c>
+      <c r="E726" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A727" t="s">
+        <v>87</v>
+      </c>
+      <c r="B727" t="s">
+        <v>69</v>
+      </c>
+      <c r="C727" t="s">
+        <v>70</v>
+      </c>
+      <c r="D727" t="s">
+        <v>0</v>
+      </c>
+      <c r="E727" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H543" xr:uid="{0692E406-93EB-1E43-B635-F260B1D88D4E}">
@@ -12281,15 +15558,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905205ED-422E-EE47-B73C-23669B18A592}">
-  <dimension ref="A1:I302"/>
+  <dimension ref="A1:P302"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I256"/>
+    <sheetView topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="P199" sqref="L2:P199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -12315,7 +15592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -12340,8 +15617,23 @@
       <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -12366,8 +15658,23 @@
       <c r="I3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -12392,8 +15699,23 @@
       <c r="I4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -12418,8 +15740,23 @@
       <c r="I5" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -12444,8 +15781,23 @@
       <c r="I6" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -12470,8 +15822,23 @@
       <c r="I7" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -12496,8 +15863,23 @@
       <c r="I8" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -12522,8 +15904,23 @@
       <c r="I9" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L9" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -12548,8 +15945,23 @@
       <c r="I10" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -12574,8 +15986,23 @@
       <c r="I11" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -12600,8 +16027,23 @@
       <c r="I12" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -12626,8 +16068,23 @@
       <c r="I13" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -12652,8 +16109,23 @@
       <c r="I14" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" t="s">
+        <v>72</v>
+      </c>
+      <c r="O14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -12678,8 +16150,23 @@
       <c r="I15" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L15" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" t="s">
+        <v>72</v>
+      </c>
+      <c r="O15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -12704,8 +16191,23 @@
       <c r="I16" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L16" t="s">
+        <v>86</v>
+      </c>
+      <c r="M16" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" t="s">
+        <v>72</v>
+      </c>
+      <c r="O16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -12730,8 +16232,23 @@
       <c r="I17" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>86</v>
+      </c>
+      <c r="M17" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -12756,8 +16273,23 @@
       <c r="I18" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L18" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" t="s">
+        <v>71</v>
+      </c>
+      <c r="N18" t="s">
+        <v>72</v>
+      </c>
+      <c r="O18" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -12782,8 +16314,23 @@
       <c r="I19" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L19" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N19" t="s">
+        <v>72</v>
+      </c>
+      <c r="O19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -12808,8 +16355,23 @@
       <c r="I20" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L20" t="s">
+        <v>85</v>
+      </c>
+      <c r="M20" t="s">
+        <v>61</v>
+      </c>
+      <c r="N20" t="s">
+        <v>62</v>
+      </c>
+      <c r="O20" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -12834,8 +16396,23 @@
       <c r="I21" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L21" t="s">
+        <v>85</v>
+      </c>
+      <c r="M21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -12860,8 +16437,23 @@
       <c r="I22" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L22" t="s">
+        <v>86</v>
+      </c>
+      <c r="M22" t="s">
+        <v>61</v>
+      </c>
+      <c r="N22" t="s">
+        <v>62</v>
+      </c>
+      <c r="O22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -12886,8 +16478,23 @@
       <c r="I23" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L23" t="s">
+        <v>86</v>
+      </c>
+      <c r="M23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N23" t="s">
+        <v>62</v>
+      </c>
+      <c r="O23" t="s">
+        <v>0</v>
+      </c>
+      <c r="P23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -12912,8 +16519,23 @@
       <c r="I24" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>87</v>
+      </c>
+      <c r="M24" t="s">
+        <v>61</v>
+      </c>
+      <c r="N24" t="s">
+        <v>62</v>
+      </c>
+      <c r="O24" t="s">
+        <v>2</v>
+      </c>
+      <c r="P24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -12938,8 +16560,23 @@
       <c r="I25" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L25" t="s">
+        <v>87</v>
+      </c>
+      <c r="M25" t="s">
+        <v>61</v>
+      </c>
+      <c r="N25" t="s">
+        <v>62</v>
+      </c>
+      <c r="O25" t="s">
+        <v>0</v>
+      </c>
+      <c r="P25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -12964,8 +16601,23 @@
       <c r="I26" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M26" t="s">
+        <v>63</v>
+      </c>
+      <c r="N26" t="s">
+        <v>64</v>
+      </c>
+      <c r="O26" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -12990,8 +16642,23 @@
       <c r="I27" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L27" t="s">
+        <v>85</v>
+      </c>
+      <c r="M27" t="s">
+        <v>63</v>
+      </c>
+      <c r="N27" t="s">
+        <v>64</v>
+      </c>
+      <c r="O27" t="s">
+        <v>0</v>
+      </c>
+      <c r="P27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -13016,8 +16683,23 @@
       <c r="I28" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L28" t="s">
+        <v>86</v>
+      </c>
+      <c r="M28" t="s">
+        <v>63</v>
+      </c>
+      <c r="N28" t="s">
+        <v>64</v>
+      </c>
+      <c r="O28" t="s">
+        <v>2</v>
+      </c>
+      <c r="P28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -13042,8 +16724,23 @@
       <c r="I29" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L29" t="s">
+        <v>86</v>
+      </c>
+      <c r="M29" t="s">
+        <v>63</v>
+      </c>
+      <c r="N29" t="s">
+        <v>64</v>
+      </c>
+      <c r="O29" t="s">
+        <v>0</v>
+      </c>
+      <c r="P29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -13068,8 +16765,23 @@
       <c r="I30" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>87</v>
+      </c>
+      <c r="M30" t="s">
+        <v>63</v>
+      </c>
+      <c r="N30" t="s">
+        <v>64</v>
+      </c>
+      <c r="O30" t="s">
+        <v>2</v>
+      </c>
+      <c r="P30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -13094,8 +16806,23 @@
       <c r="I31" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L31" t="s">
+        <v>87</v>
+      </c>
+      <c r="M31" t="s">
+        <v>63</v>
+      </c>
+      <c r="N31" t="s">
+        <v>64</v>
+      </c>
+      <c r="O31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
@@ -13120,8 +16847,23 @@
       <c r="I32" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L32" t="s">
+        <v>85</v>
+      </c>
+      <c r="M32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" t="s">
+        <v>22</v>
+      </c>
+      <c r="O32" t="s">
+        <v>2</v>
+      </c>
+      <c r="P32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -13146,8 +16888,23 @@
       <c r="I33" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L33" t="s">
+        <v>85</v>
+      </c>
+      <c r="M33" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" t="s">
+        <v>22</v>
+      </c>
+      <c r="O33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -13172,8 +16929,23 @@
       <c r="I34" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L34" t="s">
+        <v>86</v>
+      </c>
+      <c r="M34" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" t="s">
+        <v>22</v>
+      </c>
+      <c r="O34" t="s">
+        <v>2</v>
+      </c>
+      <c r="P34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -13198,8 +16970,23 @@
       <c r="I35" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L35" t="s">
+        <v>86</v>
+      </c>
+      <c r="M35" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" t="s">
+        <v>22</v>
+      </c>
+      <c r="O35" t="s">
+        <v>0</v>
+      </c>
+      <c r="P35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -13224,8 +17011,23 @@
       <c r="I36" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L36" t="s">
+        <v>87</v>
+      </c>
+      <c r="M36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" t="s">
+        <v>22</v>
+      </c>
+      <c r="O36" t="s">
+        <v>2</v>
+      </c>
+      <c r="P36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -13250,8 +17052,23 @@
       <c r="I37" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L37" t="s">
+        <v>87</v>
+      </c>
+      <c r="M37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" t="s">
+        <v>22</v>
+      </c>
+      <c r="O37" t="s">
+        <v>0</v>
+      </c>
+      <c r="P37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
@@ -13276,8 +17093,23 @@
       <c r="I38" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L38" t="s">
+        <v>85</v>
+      </c>
+      <c r="M38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N38" t="s">
+        <v>24</v>
+      </c>
+      <c r="O38" t="s">
+        <v>2</v>
+      </c>
+      <c r="P38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -13302,8 +17134,23 @@
       <c r="I39" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L39" t="s">
+        <v>85</v>
+      </c>
+      <c r="M39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" t="s">
+        <v>24</v>
+      </c>
+      <c r="O39" t="s">
+        <v>0</v>
+      </c>
+      <c r="P39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
@@ -13328,8 +17175,23 @@
       <c r="I40" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L40" t="s">
+        <v>86</v>
+      </c>
+      <c r="M40" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" t="s">
+        <v>24</v>
+      </c>
+      <c r="O40" t="s">
+        <v>2</v>
+      </c>
+      <c r="P40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -13354,8 +17216,23 @@
       <c r="I41" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L41" t="s">
+        <v>86</v>
+      </c>
+      <c r="M41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" t="s">
+        <v>24</v>
+      </c>
+      <c r="O41" t="s">
+        <v>0</v>
+      </c>
+      <c r="P41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -13380,8 +17257,23 @@
       <c r="I42" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L42" t="s">
+        <v>87</v>
+      </c>
+      <c r="M42" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42" t="s">
+        <v>24</v>
+      </c>
+      <c r="O42" t="s">
+        <v>2</v>
+      </c>
+      <c r="P42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -13406,8 +17298,23 @@
       <c r="I43" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L43" t="s">
+        <v>87</v>
+      </c>
+      <c r="M43" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" t="s">
+        <v>24</v>
+      </c>
+      <c r="O43" t="s">
+        <v>0</v>
+      </c>
+      <c r="P43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -13432,8 +17339,23 @@
       <c r="I44" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L44" t="s">
+        <v>85</v>
+      </c>
+      <c r="M44" t="s">
+        <v>73</v>
+      </c>
+      <c r="N44" t="s">
+        <v>74</v>
+      </c>
+      <c r="O44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
@@ -13458,8 +17380,23 @@
       <c r="I45" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L45" t="s">
+        <v>85</v>
+      </c>
+      <c r="M45" t="s">
+        <v>73</v>
+      </c>
+      <c r="N45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O45" t="s">
+        <v>0</v>
+      </c>
+      <c r="P45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>7</v>
       </c>
@@ -13484,8 +17421,23 @@
       <c r="I46" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L46" t="s">
+        <v>86</v>
+      </c>
+      <c r="M46" t="s">
+        <v>73</v>
+      </c>
+      <c r="N46" t="s">
+        <v>74</v>
+      </c>
+      <c r="O46" t="s">
+        <v>2</v>
+      </c>
+      <c r="P46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
@@ -13510,8 +17462,23 @@
       <c r="I47" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L47" t="s">
+        <v>86</v>
+      </c>
+      <c r="M47" t="s">
+        <v>73</v>
+      </c>
+      <c r="N47" t="s">
+        <v>74</v>
+      </c>
+      <c r="O47" t="s">
+        <v>0</v>
+      </c>
+      <c r="P47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
@@ -13536,8 +17503,23 @@
       <c r="I48" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L48" t="s">
+        <v>87</v>
+      </c>
+      <c r="M48" t="s">
+        <v>73</v>
+      </c>
+      <c r="N48" t="s">
+        <v>74</v>
+      </c>
+      <c r="O48" t="s">
+        <v>2</v>
+      </c>
+      <c r="P48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
@@ -13562,8 +17544,23 @@
       <c r="I49" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L49" t="s">
+        <v>87</v>
+      </c>
+      <c r="M49" t="s">
+        <v>73</v>
+      </c>
+      <c r="N49" t="s">
+        <v>74</v>
+      </c>
+      <c r="O49" t="s">
+        <v>0</v>
+      </c>
+      <c r="P49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -13588,8 +17585,23 @@
       <c r="I50" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L50" t="s">
+        <v>85</v>
+      </c>
+      <c r="M50" t="s">
+        <v>25</v>
+      </c>
+      <c r="N50" t="s">
+        <v>26</v>
+      </c>
+      <c r="O50" t="s">
+        <v>2</v>
+      </c>
+      <c r="P50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
@@ -13614,8 +17626,23 @@
       <c r="I51" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L51" t="s">
+        <v>85</v>
+      </c>
+      <c r="M51" t="s">
+        <v>25</v>
+      </c>
+      <c r="N51" t="s">
+        <v>26</v>
+      </c>
+      <c r="O51" t="s">
+        <v>0</v>
+      </c>
+      <c r="P51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
@@ -13640,8 +17667,23 @@
       <c r="I52" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L52" t="s">
+        <v>86</v>
+      </c>
+      <c r="M52" t="s">
+        <v>25</v>
+      </c>
+      <c r="N52" t="s">
+        <v>26</v>
+      </c>
+      <c r="O52" t="s">
+        <v>2</v>
+      </c>
+      <c r="P52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -13666,8 +17708,23 @@
       <c r="I53" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L53" t="s">
+        <v>86</v>
+      </c>
+      <c r="M53" t="s">
+        <v>25</v>
+      </c>
+      <c r="N53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O53" t="s">
+        <v>0</v>
+      </c>
+      <c r="P53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
@@ -13692,8 +17749,23 @@
       <c r="I54" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L54" t="s">
+        <v>87</v>
+      </c>
+      <c r="M54" t="s">
+        <v>25</v>
+      </c>
+      <c r="N54" t="s">
+        <v>26</v>
+      </c>
+      <c r="O54" t="s">
+        <v>2</v>
+      </c>
+      <c r="P54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>7</v>
       </c>
@@ -13718,8 +17790,23 @@
       <c r="I55" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L55" t="s">
+        <v>87</v>
+      </c>
+      <c r="M55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N55" t="s">
+        <v>26</v>
+      </c>
+      <c r="O55" t="s">
+        <v>0</v>
+      </c>
+      <c r="P55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>20</v>
       </c>
@@ -13744,8 +17831,23 @@
       <c r="I56" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L56" t="s">
+        <v>85</v>
+      </c>
+      <c r="M56" t="s">
+        <v>77</v>
+      </c>
+      <c r="N56" t="s">
+        <v>78</v>
+      </c>
+      <c r="O56" t="s">
+        <v>2</v>
+      </c>
+      <c r="P56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -13770,8 +17872,23 @@
       <c r="I57" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L57" t="s">
+        <v>85</v>
+      </c>
+      <c r="M57" t="s">
+        <v>77</v>
+      </c>
+      <c r="N57" t="s">
+        <v>78</v>
+      </c>
+      <c r="O57" t="s">
+        <v>0</v>
+      </c>
+      <c r="P57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>5</v>
       </c>
@@ -13796,8 +17913,23 @@
       <c r="I58" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L58" t="s">
+        <v>86</v>
+      </c>
+      <c r="M58" t="s">
+        <v>77</v>
+      </c>
+      <c r="N58" t="s">
+        <v>78</v>
+      </c>
+      <c r="O58" t="s">
+        <v>2</v>
+      </c>
+      <c r="P58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
@@ -13822,8 +17954,23 @@
       <c r="I59" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L59" t="s">
+        <v>86</v>
+      </c>
+      <c r="M59" t="s">
+        <v>77</v>
+      </c>
+      <c r="N59" t="s">
+        <v>78</v>
+      </c>
+      <c r="O59" t="s">
+        <v>0</v>
+      </c>
+      <c r="P59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
@@ -13848,8 +17995,23 @@
       <c r="I60" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L60" t="s">
+        <v>87</v>
+      </c>
+      <c r="M60" t="s">
+        <v>77</v>
+      </c>
+      <c r="N60" t="s">
+        <v>78</v>
+      </c>
+      <c r="O60" t="s">
+        <v>2</v>
+      </c>
+      <c r="P60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
@@ -13874,8 +18036,23 @@
       <c r="I61" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M61" t="s">
+        <v>77</v>
+      </c>
+      <c r="N61" t="s">
+        <v>78</v>
+      </c>
+      <c r="O61" t="s">
+        <v>0</v>
+      </c>
+      <c r="P61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -13900,8 +18077,23 @@
       <c r="I62" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L62" t="s">
+        <v>85</v>
+      </c>
+      <c r="M62" t="s">
+        <v>27</v>
+      </c>
+      <c r="N62" t="s">
+        <v>28</v>
+      </c>
+      <c r="O62" t="s">
+        <v>2</v>
+      </c>
+      <c r="P62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -13926,8 +18118,23 @@
       <c r="I63" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L63" t="s">
+        <v>85</v>
+      </c>
+      <c r="M63" t="s">
+        <v>27</v>
+      </c>
+      <c r="N63" t="s">
+        <v>28</v>
+      </c>
+      <c r="O63" t="s">
+        <v>0</v>
+      </c>
+      <c r="P63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>20</v>
       </c>
@@ -13952,8 +18159,23 @@
       <c r="I64" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L64" t="s">
+        <v>86</v>
+      </c>
+      <c r="M64" t="s">
+        <v>27</v>
+      </c>
+      <c r="N64" t="s">
+        <v>28</v>
+      </c>
+      <c r="O64" t="s">
+        <v>2</v>
+      </c>
+      <c r="P64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
@@ -13978,8 +18200,23 @@
       <c r="I65" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L65" t="s">
+        <v>86</v>
+      </c>
+      <c r="M65" t="s">
+        <v>27</v>
+      </c>
+      <c r="N65" t="s">
+        <v>28</v>
+      </c>
+      <c r="O65" t="s">
+        <v>0</v>
+      </c>
+      <c r="P65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -14004,8 +18241,23 @@
       <c r="I66" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L66" t="s">
+        <v>87</v>
+      </c>
+      <c r="M66" t="s">
+        <v>27</v>
+      </c>
+      <c r="N66" t="s">
+        <v>28</v>
+      </c>
+      <c r="O66" t="s">
+        <v>2</v>
+      </c>
+      <c r="P66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -14030,8 +18282,23 @@
       <c r="I67" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L67" t="s">
+        <v>87</v>
+      </c>
+      <c r="M67" t="s">
+        <v>27</v>
+      </c>
+      <c r="N67" t="s">
+        <v>28</v>
+      </c>
+      <c r="O67" t="s">
+        <v>0</v>
+      </c>
+      <c r="P67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
@@ -14056,8 +18323,23 @@
       <c r="I68" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L68" t="s">
+        <v>85</v>
+      </c>
+      <c r="M68" t="s">
+        <v>29</v>
+      </c>
+      <c r="N68" t="s">
+        <v>30</v>
+      </c>
+      <c r="O68" t="s">
+        <v>2</v>
+      </c>
+      <c r="P68" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
@@ -14082,8 +18364,23 @@
       <c r="I69" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L69" t="s">
+        <v>85</v>
+      </c>
+      <c r="M69" t="s">
+        <v>29</v>
+      </c>
+      <c r="N69" t="s">
+        <v>30</v>
+      </c>
+      <c r="O69" t="s">
+        <v>0</v>
+      </c>
+      <c r="P69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>7</v>
       </c>
@@ -14108,8 +18405,23 @@
       <c r="I70" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L70" t="s">
+        <v>86</v>
+      </c>
+      <c r="M70" t="s">
+        <v>29</v>
+      </c>
+      <c r="N70" t="s">
+        <v>30</v>
+      </c>
+      <c r="O70" t="s">
+        <v>2</v>
+      </c>
+      <c r="P70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>7</v>
       </c>
@@ -14134,8 +18446,23 @@
       <c r="I71" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L71" t="s">
+        <v>86</v>
+      </c>
+      <c r="M71" t="s">
+        <v>29</v>
+      </c>
+      <c r="N71" t="s">
+        <v>30</v>
+      </c>
+      <c r="O71" t="s">
+        <v>0</v>
+      </c>
+      <c r="P71" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>20</v>
       </c>
@@ -14160,8 +18487,23 @@
       <c r="I72" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L72" t="s">
+        <v>87</v>
+      </c>
+      <c r="M72" t="s">
+        <v>29</v>
+      </c>
+      <c r="N72" t="s">
+        <v>30</v>
+      </c>
+      <c r="O72" t="s">
+        <v>2</v>
+      </c>
+      <c r="P72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>20</v>
       </c>
@@ -14186,8 +18528,23 @@
       <c r="I73" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L73" t="s">
+        <v>87</v>
+      </c>
+      <c r="M73" t="s">
+        <v>29</v>
+      </c>
+      <c r="N73" t="s">
+        <v>30</v>
+      </c>
+      <c r="O73" t="s">
+        <v>0</v>
+      </c>
+      <c r="P73" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>5</v>
       </c>
@@ -14212,8 +18569,23 @@
       <c r="I74" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L74" t="s">
+        <v>85</v>
+      </c>
+      <c r="M74" t="s">
+        <v>33</v>
+      </c>
+      <c r="N74" t="s">
+        <v>34</v>
+      </c>
+      <c r="O74" t="s">
+        <v>2</v>
+      </c>
+      <c r="P74" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
@@ -14238,8 +18610,23 @@
       <c r="I75" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L75" t="s">
+        <v>85</v>
+      </c>
+      <c r="M75" t="s">
+        <v>33</v>
+      </c>
+      <c r="N75" t="s">
+        <v>34</v>
+      </c>
+      <c r="O75" t="s">
+        <v>0</v>
+      </c>
+      <c r="P75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -14264,8 +18651,23 @@
       <c r="I76" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L76" t="s">
+        <v>86</v>
+      </c>
+      <c r="M76" t="s">
+        <v>33</v>
+      </c>
+      <c r="N76" t="s">
+        <v>34</v>
+      </c>
+      <c r="O76" t="s">
+        <v>2</v>
+      </c>
+      <c r="P76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
@@ -14290,8 +18692,23 @@
       <c r="I77" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L77" t="s">
+        <v>86</v>
+      </c>
+      <c r="M77" t="s">
+        <v>33</v>
+      </c>
+      <c r="N77" t="s">
+        <v>34</v>
+      </c>
+      <c r="O77" t="s">
+        <v>0</v>
+      </c>
+      <c r="P77" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>7</v>
       </c>
@@ -14316,8 +18733,23 @@
       <c r="I78" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L78" t="s">
+        <v>87</v>
+      </c>
+      <c r="M78" t="s">
+        <v>33</v>
+      </c>
+      <c r="N78" t="s">
+        <v>34</v>
+      </c>
+      <c r="O78" t="s">
+        <v>2</v>
+      </c>
+      <c r="P78" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>7</v>
       </c>
@@ -14342,8 +18774,23 @@
       <c r="I79" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L79" t="s">
+        <v>87</v>
+      </c>
+      <c r="M79" t="s">
+        <v>33</v>
+      </c>
+      <c r="N79" t="s">
+        <v>34</v>
+      </c>
+      <c r="O79" t="s">
+        <v>0</v>
+      </c>
+      <c r="P79" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>20</v>
       </c>
@@ -14368,8 +18815,23 @@
       <c r="I80" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L80" t="s">
+        <v>85</v>
+      </c>
+      <c r="M80" t="s">
+        <v>81</v>
+      </c>
+      <c r="N80" t="s">
+        <v>82</v>
+      </c>
+      <c r="O80" t="s">
+        <v>2</v>
+      </c>
+      <c r="P80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>20</v>
       </c>
@@ -14394,8 +18856,23 @@
       <c r="I81" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L81" t="s">
+        <v>85</v>
+      </c>
+      <c r="M81" t="s">
+        <v>81</v>
+      </c>
+      <c r="N81" t="s">
+        <v>82</v>
+      </c>
+      <c r="O81" t="s">
+        <v>0</v>
+      </c>
+      <c r="P81" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>5</v>
       </c>
@@ -14420,8 +18897,23 @@
       <c r="I82" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L82" t="s">
+        <v>86</v>
+      </c>
+      <c r="M82" t="s">
+        <v>81</v>
+      </c>
+      <c r="N82" t="s">
+        <v>82</v>
+      </c>
+      <c r="O82" t="s">
+        <v>2</v>
+      </c>
+      <c r="P82" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>5</v>
       </c>
@@ -14446,8 +18938,23 @@
       <c r="I83" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L83" t="s">
+        <v>86</v>
+      </c>
+      <c r="M83" t="s">
+        <v>81</v>
+      </c>
+      <c r="N83" t="s">
+        <v>82</v>
+      </c>
+      <c r="O83" t="s">
+        <v>0</v>
+      </c>
+      <c r="P83" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
@@ -14472,8 +18979,23 @@
       <c r="I84" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L84" t="s">
+        <v>87</v>
+      </c>
+      <c r="M84" t="s">
+        <v>81</v>
+      </c>
+      <c r="N84" t="s">
+        <v>82</v>
+      </c>
+      <c r="O84" t="s">
+        <v>2</v>
+      </c>
+      <c r="P84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
@@ -14498,8 +19020,23 @@
       <c r="I85" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L85" t="s">
+        <v>87</v>
+      </c>
+      <c r="M85" t="s">
+        <v>81</v>
+      </c>
+      <c r="N85" t="s">
+        <v>82</v>
+      </c>
+      <c r="O85" t="s">
+        <v>0</v>
+      </c>
+      <c r="P85" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>7</v>
       </c>
@@ -14524,8 +19061,23 @@
       <c r="I86" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L86" t="s">
+        <v>85</v>
+      </c>
+      <c r="M86" t="s">
+        <v>79</v>
+      </c>
+      <c r="N86" t="s">
+        <v>80</v>
+      </c>
+      <c r="O86" t="s">
+        <v>2</v>
+      </c>
+      <c r="P86" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>7</v>
       </c>
@@ -14550,8 +19102,23 @@
       <c r="I87" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L87" t="s">
+        <v>85</v>
+      </c>
+      <c r="M87" t="s">
+        <v>79</v>
+      </c>
+      <c r="N87" t="s">
+        <v>80</v>
+      </c>
+      <c r="O87" t="s">
+        <v>0</v>
+      </c>
+      <c r="P87" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>20</v>
       </c>
@@ -14576,8 +19143,23 @@
       <c r="I88" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L88" t="s">
+        <v>86</v>
+      </c>
+      <c r="M88" t="s">
+        <v>79</v>
+      </c>
+      <c r="N88" t="s">
+        <v>80</v>
+      </c>
+      <c r="O88" t="s">
+        <v>2</v>
+      </c>
+      <c r="P88" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>20</v>
       </c>
@@ -14602,8 +19184,23 @@
       <c r="I89" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L89" t="s">
+        <v>86</v>
+      </c>
+      <c r="M89" t="s">
+        <v>79</v>
+      </c>
+      <c r="N89" t="s">
+        <v>80</v>
+      </c>
+      <c r="O89" t="s">
+        <v>0</v>
+      </c>
+      <c r="P89" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>5</v>
       </c>
@@ -14628,8 +19225,23 @@
       <c r="I90" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L90" t="s">
+        <v>87</v>
+      </c>
+      <c r="M90" t="s">
+        <v>79</v>
+      </c>
+      <c r="N90" t="s">
+        <v>80</v>
+      </c>
+      <c r="O90" t="s">
+        <v>2</v>
+      </c>
+      <c r="P90" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>5</v>
       </c>
@@ -14654,8 +19266,23 @@
       <c r="I91" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L91" t="s">
+        <v>87</v>
+      </c>
+      <c r="M91" t="s">
+        <v>79</v>
+      </c>
+      <c r="N91" t="s">
+        <v>80</v>
+      </c>
+      <c r="O91" t="s">
+        <v>0</v>
+      </c>
+      <c r="P91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>6</v>
       </c>
@@ -14680,8 +19307,23 @@
       <c r="I92" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L92" t="s">
+        <v>85</v>
+      </c>
+      <c r="M92" t="s">
+        <v>35</v>
+      </c>
+      <c r="N92" t="s">
+        <v>36</v>
+      </c>
+      <c r="O92" t="s">
+        <v>2</v>
+      </c>
+      <c r="P92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>6</v>
       </c>
@@ -14706,8 +19348,23 @@
       <c r="I93" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L93" t="s">
+        <v>85</v>
+      </c>
+      <c r="M93" t="s">
+        <v>35</v>
+      </c>
+      <c r="N93" t="s">
+        <v>36</v>
+      </c>
+      <c r="O93" t="s">
+        <v>0</v>
+      </c>
+      <c r="P93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>7</v>
       </c>
@@ -14732,8 +19389,23 @@
       <c r="I94" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L94" t="s">
+        <v>86</v>
+      </c>
+      <c r="M94" t="s">
+        <v>35</v>
+      </c>
+      <c r="N94" t="s">
+        <v>36</v>
+      </c>
+      <c r="O94" t="s">
+        <v>2</v>
+      </c>
+      <c r="P94" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>7</v>
       </c>
@@ -14758,8 +19430,23 @@
       <c r="I95" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L95" t="s">
+        <v>86</v>
+      </c>
+      <c r="M95" t="s">
+        <v>35</v>
+      </c>
+      <c r="N95" t="s">
+        <v>36</v>
+      </c>
+      <c r="O95" t="s">
+        <v>0</v>
+      </c>
+      <c r="P95" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>20</v>
       </c>
@@ -14784,8 +19471,23 @@
       <c r="I96" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L96" t="s">
+        <v>87</v>
+      </c>
+      <c r="M96" t="s">
+        <v>35</v>
+      </c>
+      <c r="N96" t="s">
+        <v>36</v>
+      </c>
+      <c r="O96" t="s">
+        <v>2</v>
+      </c>
+      <c r="P96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>20</v>
       </c>
@@ -14810,8 +19512,23 @@
       <c r="I97" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L97" t="s">
+        <v>87</v>
+      </c>
+      <c r="M97" t="s">
+        <v>35</v>
+      </c>
+      <c r="N97" t="s">
+        <v>36</v>
+      </c>
+      <c r="O97" t="s">
+        <v>0</v>
+      </c>
+      <c r="P97" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>5</v>
       </c>
@@ -14836,8 +19553,23 @@
       <c r="I98" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L98" t="s">
+        <v>85</v>
+      </c>
+      <c r="M98" t="s">
+        <v>37</v>
+      </c>
+      <c r="N98" t="s">
+        <v>38</v>
+      </c>
+      <c r="O98" t="s">
+        <v>2</v>
+      </c>
+      <c r="P98" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>5</v>
       </c>
@@ -14862,8 +19594,23 @@
       <c r="I99" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L99" t="s">
+        <v>85</v>
+      </c>
+      <c r="M99" t="s">
+        <v>37</v>
+      </c>
+      <c r="N99" t="s">
+        <v>38</v>
+      </c>
+      <c r="O99" t="s">
+        <v>0</v>
+      </c>
+      <c r="P99" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>6</v>
       </c>
@@ -14888,8 +19635,23 @@
       <c r="I100" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L100" t="s">
+        <v>86</v>
+      </c>
+      <c r="M100" t="s">
+        <v>37</v>
+      </c>
+      <c r="N100" t="s">
+        <v>38</v>
+      </c>
+      <c r="O100" t="s">
+        <v>2</v>
+      </c>
+      <c r="P100" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>6</v>
       </c>
@@ -14914,8 +19676,23 @@
       <c r="I101" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L101" t="s">
+        <v>86</v>
+      </c>
+      <c r="M101" t="s">
+        <v>37</v>
+      </c>
+      <c r="N101" t="s">
+        <v>38</v>
+      </c>
+      <c r="O101" t="s">
+        <v>0</v>
+      </c>
+      <c r="P101" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>7</v>
       </c>
@@ -14940,8 +19717,23 @@
       <c r="I102" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L102" t="s">
+        <v>87</v>
+      </c>
+      <c r="M102" t="s">
+        <v>37</v>
+      </c>
+      <c r="N102" t="s">
+        <v>38</v>
+      </c>
+      <c r="O102" t="s">
+        <v>2</v>
+      </c>
+      <c r="P102" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>7</v>
       </c>
@@ -14966,8 +19758,23 @@
       <c r="I103" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L103" t="s">
+        <v>87</v>
+      </c>
+      <c r="M103" t="s">
+        <v>37</v>
+      </c>
+      <c r="N103" t="s">
+        <v>38</v>
+      </c>
+      <c r="O103" t="s">
+        <v>0</v>
+      </c>
+      <c r="P103" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>20</v>
       </c>
@@ -14992,8 +19799,23 @@
       <c r="I104" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L104" t="s">
+        <v>85</v>
+      </c>
+      <c r="M104" t="s">
+        <v>39</v>
+      </c>
+      <c r="N104" t="s">
+        <v>40</v>
+      </c>
+      <c r="O104" t="s">
+        <v>2</v>
+      </c>
+      <c r="P104" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>20</v>
       </c>
@@ -15018,8 +19840,23 @@
       <c r="I105" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L105" t="s">
+        <v>85</v>
+      </c>
+      <c r="M105" t="s">
+        <v>39</v>
+      </c>
+      <c r="N105" t="s">
+        <v>40</v>
+      </c>
+      <c r="O105" t="s">
+        <v>0</v>
+      </c>
+      <c r="P105" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>5</v>
       </c>
@@ -15044,8 +19881,23 @@
       <c r="I106" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L106" t="s">
+        <v>86</v>
+      </c>
+      <c r="M106" t="s">
+        <v>39</v>
+      </c>
+      <c r="N106" t="s">
+        <v>40</v>
+      </c>
+      <c r="O106" t="s">
+        <v>2</v>
+      </c>
+      <c r="P106" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>5</v>
       </c>
@@ -15070,8 +19922,23 @@
       <c r="I107" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L107" t="s">
+        <v>86</v>
+      </c>
+      <c r="M107" t="s">
+        <v>39</v>
+      </c>
+      <c r="N107" t="s">
+        <v>40</v>
+      </c>
+      <c r="O107" t="s">
+        <v>0</v>
+      </c>
+      <c r="P107" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>6</v>
       </c>
@@ -15096,8 +19963,23 @@
       <c r="I108" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L108" t="s">
+        <v>87</v>
+      </c>
+      <c r="M108" t="s">
+        <v>39</v>
+      </c>
+      <c r="N108" t="s">
+        <v>40</v>
+      </c>
+      <c r="O108" t="s">
+        <v>2</v>
+      </c>
+      <c r="P108" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>6</v>
       </c>
@@ -15122,8 +20004,23 @@
       <c r="I109" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L109" t="s">
+        <v>87</v>
+      </c>
+      <c r="M109" t="s">
+        <v>39</v>
+      </c>
+      <c r="N109" t="s">
+        <v>40</v>
+      </c>
+      <c r="O109" t="s">
+        <v>0</v>
+      </c>
+      <c r="P109" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>7</v>
       </c>
@@ -15148,8 +20045,23 @@
       <c r="I110" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L110" t="s">
+        <v>85</v>
+      </c>
+      <c r="M110" t="s">
+        <v>41</v>
+      </c>
+      <c r="N110" t="s">
+        <v>42</v>
+      </c>
+      <c r="O110" t="s">
+        <v>2</v>
+      </c>
+      <c r="P110" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>7</v>
       </c>
@@ -15174,8 +20086,23 @@
       <c r="I111" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L111" t="s">
+        <v>85</v>
+      </c>
+      <c r="M111" t="s">
+        <v>41</v>
+      </c>
+      <c r="N111" t="s">
+        <v>42</v>
+      </c>
+      <c r="O111" t="s">
+        <v>0</v>
+      </c>
+      <c r="P111" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>20</v>
       </c>
@@ -15200,8 +20127,23 @@
       <c r="I112" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L112" t="s">
+        <v>86</v>
+      </c>
+      <c r="M112" t="s">
+        <v>41</v>
+      </c>
+      <c r="N112" t="s">
+        <v>42</v>
+      </c>
+      <c r="O112" t="s">
+        <v>2</v>
+      </c>
+      <c r="P112" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>20</v>
       </c>
@@ -15226,8 +20168,23 @@
       <c r="I113" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L113" t="s">
+        <v>86</v>
+      </c>
+      <c r="M113" t="s">
+        <v>41</v>
+      </c>
+      <c r="N113" t="s">
+        <v>42</v>
+      </c>
+      <c r="O113" t="s">
+        <v>0</v>
+      </c>
+      <c r="P113" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>5</v>
       </c>
@@ -15252,8 +20209,23 @@
       <c r="I114" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L114" t="s">
+        <v>87</v>
+      </c>
+      <c r="M114" t="s">
+        <v>41</v>
+      </c>
+      <c r="N114" t="s">
+        <v>42</v>
+      </c>
+      <c r="O114" t="s">
+        <v>2</v>
+      </c>
+      <c r="P114" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>5</v>
       </c>
@@ -15278,8 +20250,23 @@
       <c r="I115" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L115" t="s">
+        <v>87</v>
+      </c>
+      <c r="M115" t="s">
+        <v>41</v>
+      </c>
+      <c r="N115" t="s">
+        <v>42</v>
+      </c>
+      <c r="O115" t="s">
+        <v>0</v>
+      </c>
+      <c r="P115" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>6</v>
       </c>
@@ -15304,8 +20291,23 @@
       <c r="I116" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L116" t="s">
+        <v>85</v>
+      </c>
+      <c r="M116" t="s">
+        <v>31</v>
+      </c>
+      <c r="N116" t="s">
+        <v>32</v>
+      </c>
+      <c r="O116" t="s">
+        <v>2</v>
+      </c>
+      <c r="P116" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>6</v>
       </c>
@@ -15330,8 +20332,23 @@
       <c r="I117" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L117" t="s">
+        <v>85</v>
+      </c>
+      <c r="M117" t="s">
+        <v>31</v>
+      </c>
+      <c r="N117" t="s">
+        <v>32</v>
+      </c>
+      <c r="O117" t="s">
+        <v>0</v>
+      </c>
+      <c r="P117" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>7</v>
       </c>
@@ -15356,8 +20373,23 @@
       <c r="I118" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L118" t="s">
+        <v>86</v>
+      </c>
+      <c r="M118" t="s">
+        <v>31</v>
+      </c>
+      <c r="N118" t="s">
+        <v>32</v>
+      </c>
+      <c r="O118" t="s">
+        <v>2</v>
+      </c>
+      <c r="P118" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>7</v>
       </c>
@@ -15382,8 +20414,23 @@
       <c r="I119" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L119" t="s">
+        <v>86</v>
+      </c>
+      <c r="M119" t="s">
+        <v>31</v>
+      </c>
+      <c r="N119" t="s">
+        <v>32</v>
+      </c>
+      <c r="O119" t="s">
+        <v>0</v>
+      </c>
+      <c r="P119" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>20</v>
       </c>
@@ -15408,8 +20455,23 @@
       <c r="I120" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L120" t="s">
+        <v>87</v>
+      </c>
+      <c r="M120" t="s">
+        <v>31</v>
+      </c>
+      <c r="N120" t="s">
+        <v>32</v>
+      </c>
+      <c r="O120" t="s">
+        <v>2</v>
+      </c>
+      <c r="P120" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>20</v>
       </c>
@@ -15434,8 +20496,23 @@
       <c r="I121" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L121" t="s">
+        <v>87</v>
+      </c>
+      <c r="M121" t="s">
+        <v>31</v>
+      </c>
+      <c r="N121" t="s">
+        <v>32</v>
+      </c>
+      <c r="O121" t="s">
+        <v>0</v>
+      </c>
+      <c r="P121" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>5</v>
       </c>
@@ -15460,8 +20537,23 @@
       <c r="I122" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L122" t="s">
+        <v>85</v>
+      </c>
+      <c r="M122" t="s">
+        <v>43</v>
+      </c>
+      <c r="N122" t="s">
+        <v>44</v>
+      </c>
+      <c r="O122" t="s">
+        <v>2</v>
+      </c>
+      <c r="P122" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>5</v>
       </c>
@@ -15486,8 +20578,23 @@
       <c r="I123" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L123" t="s">
+        <v>85</v>
+      </c>
+      <c r="M123" t="s">
+        <v>43</v>
+      </c>
+      <c r="N123" t="s">
+        <v>44</v>
+      </c>
+      <c r="O123" t="s">
+        <v>0</v>
+      </c>
+      <c r="P123" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>6</v>
       </c>
@@ -15512,8 +20619,23 @@
       <c r="I124" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L124" t="s">
+        <v>86</v>
+      </c>
+      <c r="M124" t="s">
+        <v>43</v>
+      </c>
+      <c r="N124" t="s">
+        <v>44</v>
+      </c>
+      <c r="O124" t="s">
+        <v>2</v>
+      </c>
+      <c r="P124" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>6</v>
       </c>
@@ -15538,8 +20660,23 @@
       <c r="I125" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L125" t="s">
+        <v>86</v>
+      </c>
+      <c r="M125" t="s">
+        <v>43</v>
+      </c>
+      <c r="N125" t="s">
+        <v>44</v>
+      </c>
+      <c r="O125" t="s">
+        <v>0</v>
+      </c>
+      <c r="P125" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>7</v>
       </c>
@@ -15564,8 +20701,23 @@
       <c r="I126" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L126" t="s">
+        <v>87</v>
+      </c>
+      <c r="M126" t="s">
+        <v>43</v>
+      </c>
+      <c r="N126" t="s">
+        <v>44</v>
+      </c>
+      <c r="O126" t="s">
+        <v>2</v>
+      </c>
+      <c r="P126" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>7</v>
       </c>
@@ -15590,8 +20742,23 @@
       <c r="I127" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L127" t="s">
+        <v>87</v>
+      </c>
+      <c r="M127" t="s">
+        <v>43</v>
+      </c>
+      <c r="N127" t="s">
+        <v>44</v>
+      </c>
+      <c r="O127" t="s">
+        <v>0</v>
+      </c>
+      <c r="P127" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>20</v>
       </c>
@@ -15616,8 +20783,23 @@
       <c r="I128" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L128" t="s">
+        <v>85</v>
+      </c>
+      <c r="M128" t="s">
+        <v>75</v>
+      </c>
+      <c r="N128" t="s">
+        <v>76</v>
+      </c>
+      <c r="O128" t="s">
+        <v>2</v>
+      </c>
+      <c r="P128" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>20</v>
       </c>
@@ -15642,8 +20824,23 @@
       <c r="I129" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L129" t="s">
+        <v>85</v>
+      </c>
+      <c r="M129" t="s">
+        <v>75</v>
+      </c>
+      <c r="N129" t="s">
+        <v>76</v>
+      </c>
+      <c r="O129" t="s">
+        <v>0</v>
+      </c>
+      <c r="P129" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>5</v>
       </c>
@@ -15668,8 +20865,23 @@
       <c r="I130" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L130" t="s">
+        <v>86</v>
+      </c>
+      <c r="M130" t="s">
+        <v>75</v>
+      </c>
+      <c r="N130" t="s">
+        <v>76</v>
+      </c>
+      <c r="O130" t="s">
+        <v>2</v>
+      </c>
+      <c r="P130" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>5</v>
       </c>
@@ -15694,8 +20906,23 @@
       <c r="I131" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L131" t="s">
+        <v>86</v>
+      </c>
+      <c r="M131" t="s">
+        <v>75</v>
+      </c>
+      <c r="N131" t="s">
+        <v>76</v>
+      </c>
+      <c r="O131" t="s">
+        <v>0</v>
+      </c>
+      <c r="P131" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>6</v>
       </c>
@@ -15720,8 +20947,23 @@
       <c r="I132" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L132" t="s">
+        <v>87</v>
+      </c>
+      <c r="M132" t="s">
+        <v>75</v>
+      </c>
+      <c r="N132" t="s">
+        <v>76</v>
+      </c>
+      <c r="O132" t="s">
+        <v>2</v>
+      </c>
+      <c r="P132" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>6</v>
       </c>
@@ -15746,8 +20988,23 @@
       <c r="I133" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L133" t="s">
+        <v>87</v>
+      </c>
+      <c r="M133" t="s">
+        <v>75</v>
+      </c>
+      <c r="N133" t="s">
+        <v>76</v>
+      </c>
+      <c r="O133" t="s">
+        <v>0</v>
+      </c>
+      <c r="P133" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>7</v>
       </c>
@@ -15772,8 +21029,23 @@
       <c r="I134" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L134" t="s">
+        <v>85</v>
+      </c>
+      <c r="M134" t="s">
+        <v>45</v>
+      </c>
+      <c r="N134" t="s">
+        <v>46</v>
+      </c>
+      <c r="O134" t="s">
+        <v>2</v>
+      </c>
+      <c r="P134" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>7</v>
       </c>
@@ -15798,8 +21070,23 @@
       <c r="I135" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L135" t="s">
+        <v>85</v>
+      </c>
+      <c r="M135" t="s">
+        <v>45</v>
+      </c>
+      <c r="N135" t="s">
+        <v>46</v>
+      </c>
+      <c r="O135" t="s">
+        <v>0</v>
+      </c>
+      <c r="P135" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>20</v>
       </c>
@@ -15824,8 +21111,23 @@
       <c r="I136" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L136" t="s">
+        <v>86</v>
+      </c>
+      <c r="M136" t="s">
+        <v>45</v>
+      </c>
+      <c r="N136" t="s">
+        <v>46</v>
+      </c>
+      <c r="O136" t="s">
+        <v>2</v>
+      </c>
+      <c r="P136" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>20</v>
       </c>
@@ -15850,8 +21152,23 @@
       <c r="I137" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L137" t="s">
+        <v>86</v>
+      </c>
+      <c r="M137" t="s">
+        <v>45</v>
+      </c>
+      <c r="N137" t="s">
+        <v>46</v>
+      </c>
+      <c r="O137" t="s">
+        <v>0</v>
+      </c>
+      <c r="P137" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>5</v>
       </c>
@@ -15876,8 +21193,23 @@
       <c r="I138" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L138" t="s">
+        <v>87</v>
+      </c>
+      <c r="M138" t="s">
+        <v>45</v>
+      </c>
+      <c r="N138" t="s">
+        <v>46</v>
+      </c>
+      <c r="O138" t="s">
+        <v>2</v>
+      </c>
+      <c r="P138" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>5</v>
       </c>
@@ -15902,8 +21234,23 @@
       <c r="I139" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L139" t="s">
+        <v>87</v>
+      </c>
+      <c r="M139" t="s">
+        <v>45</v>
+      </c>
+      <c r="N139" t="s">
+        <v>46</v>
+      </c>
+      <c r="O139" t="s">
+        <v>0</v>
+      </c>
+      <c r="P139" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>6</v>
       </c>
@@ -15928,8 +21275,23 @@
       <c r="I140" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L140" t="s">
+        <v>85</v>
+      </c>
+      <c r="M140" t="s">
+        <v>83</v>
+      </c>
+      <c r="N140" t="s">
+        <v>84</v>
+      </c>
+      <c r="O140" t="s">
+        <v>2</v>
+      </c>
+      <c r="P140" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>6</v>
       </c>
@@ -15954,8 +21316,23 @@
       <c r="I141" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L141" t="s">
+        <v>85</v>
+      </c>
+      <c r="M141" t="s">
+        <v>83</v>
+      </c>
+      <c r="N141" t="s">
+        <v>84</v>
+      </c>
+      <c r="O141" t="s">
+        <v>0</v>
+      </c>
+      <c r="P141" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>7</v>
       </c>
@@ -15980,8 +21357,23 @@
       <c r="I142" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L142" t="s">
+        <v>86</v>
+      </c>
+      <c r="M142" t="s">
+        <v>83</v>
+      </c>
+      <c r="N142" t="s">
+        <v>84</v>
+      </c>
+      <c r="O142" t="s">
+        <v>2</v>
+      </c>
+      <c r="P142" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>7</v>
       </c>
@@ -16006,8 +21398,23 @@
       <c r="I143" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L143" t="s">
+        <v>86</v>
+      </c>
+      <c r="M143" t="s">
+        <v>83</v>
+      </c>
+      <c r="N143" t="s">
+        <v>84</v>
+      </c>
+      <c r="O143" t="s">
+        <v>0</v>
+      </c>
+      <c r="P143" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>20</v>
       </c>
@@ -16032,8 +21439,23 @@
       <c r="I144" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L144" t="s">
+        <v>87</v>
+      </c>
+      <c r="M144" t="s">
+        <v>83</v>
+      </c>
+      <c r="N144" t="s">
+        <v>84</v>
+      </c>
+      <c r="O144" t="s">
+        <v>2</v>
+      </c>
+      <c r="P144" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>20</v>
       </c>
@@ -16058,8 +21480,23 @@
       <c r="I145" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L145" t="s">
+        <v>87</v>
+      </c>
+      <c r="M145" t="s">
+        <v>83</v>
+      </c>
+      <c r="N145" t="s">
+        <v>84</v>
+      </c>
+      <c r="O145" t="s">
+        <v>0</v>
+      </c>
+      <c r="P145" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>5</v>
       </c>
@@ -16084,8 +21521,23 @@
       <c r="I146" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L146" t="s">
+        <v>85</v>
+      </c>
+      <c r="M146" t="s">
+        <v>65</v>
+      </c>
+      <c r="N146" t="s">
+        <v>66</v>
+      </c>
+      <c r="O146" t="s">
+        <v>2</v>
+      </c>
+      <c r="P146" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>5</v>
       </c>
@@ -16110,8 +21562,23 @@
       <c r="I147" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L147" t="s">
+        <v>85</v>
+      </c>
+      <c r="M147" t="s">
+        <v>65</v>
+      </c>
+      <c r="N147" t="s">
+        <v>66</v>
+      </c>
+      <c r="O147" t="s">
+        <v>0</v>
+      </c>
+      <c r="P147" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>6</v>
       </c>
@@ -16136,8 +21603,23 @@
       <c r="I148" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L148" t="s">
+        <v>86</v>
+      </c>
+      <c r="M148" t="s">
+        <v>65</v>
+      </c>
+      <c r="N148" t="s">
+        <v>66</v>
+      </c>
+      <c r="O148" t="s">
+        <v>2</v>
+      </c>
+      <c r="P148" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>6</v>
       </c>
@@ -16162,8 +21644,23 @@
       <c r="I149" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L149" t="s">
+        <v>86</v>
+      </c>
+      <c r="M149" t="s">
+        <v>65</v>
+      </c>
+      <c r="N149" t="s">
+        <v>66</v>
+      </c>
+      <c r="O149" t="s">
+        <v>0</v>
+      </c>
+      <c r="P149" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>7</v>
       </c>
@@ -16188,8 +21685,23 @@
       <c r="I150" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L150" t="s">
+        <v>87</v>
+      </c>
+      <c r="M150" t="s">
+        <v>65</v>
+      </c>
+      <c r="N150" t="s">
+        <v>66</v>
+      </c>
+      <c r="O150" t="s">
+        <v>2</v>
+      </c>
+      <c r="P150" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>7</v>
       </c>
@@ -16214,8 +21726,23 @@
       <c r="I151" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L151" t="s">
+        <v>87</v>
+      </c>
+      <c r="M151" t="s">
+        <v>65</v>
+      </c>
+      <c r="N151" t="s">
+        <v>66</v>
+      </c>
+      <c r="O151" t="s">
+        <v>0</v>
+      </c>
+      <c r="P151" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>20</v>
       </c>
@@ -16240,8 +21767,23 @@
       <c r="I152" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L152" t="s">
+        <v>85</v>
+      </c>
+      <c r="M152" t="s">
+        <v>3</v>
+      </c>
+      <c r="N152" t="s">
+        <v>4</v>
+      </c>
+      <c r="O152" t="s">
+        <v>2</v>
+      </c>
+      <c r="P152" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>20</v>
       </c>
@@ -16266,8 +21808,23 @@
       <c r="I153" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L153" t="s">
+        <v>85</v>
+      </c>
+      <c r="M153" t="s">
+        <v>3</v>
+      </c>
+      <c r="N153" t="s">
+        <v>4</v>
+      </c>
+      <c r="O153" t="s">
+        <v>0</v>
+      </c>
+      <c r="P153" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>5</v>
       </c>
@@ -16292,8 +21849,23 @@
       <c r="I154" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L154" t="s">
+        <v>86</v>
+      </c>
+      <c r="M154" t="s">
+        <v>3</v>
+      </c>
+      <c r="N154" t="s">
+        <v>4</v>
+      </c>
+      <c r="O154" t="s">
+        <v>2</v>
+      </c>
+      <c r="P154" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>5</v>
       </c>
@@ -16318,8 +21890,23 @@
       <c r="I155" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L155" t="s">
+        <v>86</v>
+      </c>
+      <c r="M155" t="s">
+        <v>3</v>
+      </c>
+      <c r="N155" t="s">
+        <v>4</v>
+      </c>
+      <c r="O155" t="s">
+        <v>0</v>
+      </c>
+      <c r="P155" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>6</v>
       </c>
@@ -16344,8 +21931,23 @@
       <c r="I156" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L156" t="s">
+        <v>87</v>
+      </c>
+      <c r="M156" t="s">
+        <v>3</v>
+      </c>
+      <c r="N156" t="s">
+        <v>4</v>
+      </c>
+      <c r="O156" t="s">
+        <v>2</v>
+      </c>
+      <c r="P156" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>6</v>
       </c>
@@ -16370,8 +21972,23 @@
       <c r="I157" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L157" t="s">
+        <v>87</v>
+      </c>
+      <c r="M157" t="s">
+        <v>3</v>
+      </c>
+      <c r="N157" t="s">
+        <v>4</v>
+      </c>
+      <c r="O157" t="s">
+        <v>0</v>
+      </c>
+      <c r="P157" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>7</v>
       </c>
@@ -16396,8 +22013,23 @@
       <c r="I158" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L158" t="s">
+        <v>85</v>
+      </c>
+      <c r="M158" t="s">
+        <v>47</v>
+      </c>
+      <c r="N158" t="s">
+        <v>48</v>
+      </c>
+      <c r="O158" t="s">
+        <v>2</v>
+      </c>
+      <c r="P158" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>7</v>
       </c>
@@ -16422,8 +22054,23 @@
       <c r="I159" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L159" t="s">
+        <v>85</v>
+      </c>
+      <c r="M159" t="s">
+        <v>47</v>
+      </c>
+      <c r="N159" t="s">
+        <v>48</v>
+      </c>
+      <c r="O159" t="s">
+        <v>0</v>
+      </c>
+      <c r="P159" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>20</v>
       </c>
@@ -16448,8 +22095,23 @@
       <c r="I160" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L160" t="s">
+        <v>86</v>
+      </c>
+      <c r="M160" t="s">
+        <v>47</v>
+      </c>
+      <c r="N160" t="s">
+        <v>48</v>
+      </c>
+      <c r="O160" t="s">
+        <v>2</v>
+      </c>
+      <c r="P160" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>20</v>
       </c>
@@ -16474,8 +22136,23 @@
       <c r="I161" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L161" t="s">
+        <v>86</v>
+      </c>
+      <c r="M161" t="s">
+        <v>47</v>
+      </c>
+      <c r="N161" t="s">
+        <v>48</v>
+      </c>
+      <c r="O161" t="s">
+        <v>0</v>
+      </c>
+      <c r="P161" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>5</v>
       </c>
@@ -16500,8 +22177,23 @@
       <c r="I162" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L162" t="s">
+        <v>87</v>
+      </c>
+      <c r="M162" t="s">
+        <v>47</v>
+      </c>
+      <c r="N162" t="s">
+        <v>48</v>
+      </c>
+      <c r="O162" t="s">
+        <v>2</v>
+      </c>
+      <c r="P162" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>5</v>
       </c>
@@ -16526,8 +22218,23 @@
       <c r="I163" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L163" t="s">
+        <v>87</v>
+      </c>
+      <c r="M163" t="s">
+        <v>47</v>
+      </c>
+      <c r="N163" t="s">
+        <v>48</v>
+      </c>
+      <c r="O163" t="s">
+        <v>0</v>
+      </c>
+      <c r="P163" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>6</v>
       </c>
@@ -16552,8 +22259,23 @@
       <c r="I164" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L164" t="s">
+        <v>85</v>
+      </c>
+      <c r="M164" t="s">
+        <v>49</v>
+      </c>
+      <c r="N164" t="s">
+        <v>50</v>
+      </c>
+      <c r="O164" t="s">
+        <v>2</v>
+      </c>
+      <c r="P164" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>6</v>
       </c>
@@ -16578,8 +22300,23 @@
       <c r="I165" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L165" t="s">
+        <v>85</v>
+      </c>
+      <c r="M165" t="s">
+        <v>49</v>
+      </c>
+      <c r="N165" t="s">
+        <v>50</v>
+      </c>
+      <c r="O165" t="s">
+        <v>0</v>
+      </c>
+      <c r="P165" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>7</v>
       </c>
@@ -16604,8 +22341,23 @@
       <c r="I166" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L166" t="s">
+        <v>86</v>
+      </c>
+      <c r="M166" t="s">
+        <v>49</v>
+      </c>
+      <c r="N166" t="s">
+        <v>50</v>
+      </c>
+      <c r="O166" t="s">
+        <v>2</v>
+      </c>
+      <c r="P166" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>7</v>
       </c>
@@ -16630,8 +22382,23 @@
       <c r="I167" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L167" t="s">
+        <v>86</v>
+      </c>
+      <c r="M167" t="s">
+        <v>49</v>
+      </c>
+      <c r="N167" t="s">
+        <v>50</v>
+      </c>
+      <c r="O167" t="s">
+        <v>0</v>
+      </c>
+      <c r="P167" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>20</v>
       </c>
@@ -16656,8 +22423,23 @@
       <c r="I168" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L168" t="s">
+        <v>87</v>
+      </c>
+      <c r="M168" t="s">
+        <v>49</v>
+      </c>
+      <c r="N168" t="s">
+        <v>50</v>
+      </c>
+      <c r="O168" t="s">
+        <v>2</v>
+      </c>
+      <c r="P168" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>20</v>
       </c>
@@ -16682,8 +22464,23 @@
       <c r="I169" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L169" t="s">
+        <v>87</v>
+      </c>
+      <c r="M169" t="s">
+        <v>49</v>
+      </c>
+      <c r="N169" t="s">
+        <v>50</v>
+      </c>
+      <c r="O169" t="s">
+        <v>0</v>
+      </c>
+      <c r="P169" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>5</v>
       </c>
@@ -16708,8 +22505,23 @@
       <c r="I170" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L170" t="s">
+        <v>85</v>
+      </c>
+      <c r="M170" t="s">
+        <v>51</v>
+      </c>
+      <c r="N170" t="s">
+        <v>52</v>
+      </c>
+      <c r="O170" t="s">
+        <v>2</v>
+      </c>
+      <c r="P170" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>5</v>
       </c>
@@ -16734,8 +22546,23 @@
       <c r="I171" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L171" t="s">
+        <v>85</v>
+      </c>
+      <c r="M171" t="s">
+        <v>51</v>
+      </c>
+      <c r="N171" t="s">
+        <v>52</v>
+      </c>
+      <c r="O171" t="s">
+        <v>0</v>
+      </c>
+      <c r="P171" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>6</v>
       </c>
@@ -16760,8 +22587,23 @@
       <c r="I172" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L172" t="s">
+        <v>86</v>
+      </c>
+      <c r="M172" t="s">
+        <v>51</v>
+      </c>
+      <c r="N172" t="s">
+        <v>52</v>
+      </c>
+      <c r="O172" t="s">
+        <v>2</v>
+      </c>
+      <c r="P172" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>6</v>
       </c>
@@ -16786,8 +22628,23 @@
       <c r="I173" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L173" t="s">
+        <v>86</v>
+      </c>
+      <c r="M173" t="s">
+        <v>51</v>
+      </c>
+      <c r="N173" t="s">
+        <v>52</v>
+      </c>
+      <c r="O173" t="s">
+        <v>0</v>
+      </c>
+      <c r="P173" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>7</v>
       </c>
@@ -16812,8 +22669,23 @@
       <c r="I174" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L174" t="s">
+        <v>87</v>
+      </c>
+      <c r="M174" t="s">
+        <v>51</v>
+      </c>
+      <c r="N174" t="s">
+        <v>52</v>
+      </c>
+      <c r="O174" t="s">
+        <v>2</v>
+      </c>
+      <c r="P174" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>7</v>
       </c>
@@ -16838,8 +22710,23 @@
       <c r="I175" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L175" t="s">
+        <v>87</v>
+      </c>
+      <c r="M175" t="s">
+        <v>51</v>
+      </c>
+      <c r="N175" t="s">
+        <v>52</v>
+      </c>
+      <c r="O175" t="s">
+        <v>0</v>
+      </c>
+      <c r="P175" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>20</v>
       </c>
@@ -16864,8 +22751,23 @@
       <c r="I176" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L176" t="s">
+        <v>85</v>
+      </c>
+      <c r="M176" t="s">
+        <v>53</v>
+      </c>
+      <c r="N176" t="s">
+        <v>54</v>
+      </c>
+      <c r="O176" t="s">
+        <v>2</v>
+      </c>
+      <c r="P176" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>20</v>
       </c>
@@ -16890,8 +22792,23 @@
       <c r="I177" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L177" t="s">
+        <v>85</v>
+      </c>
+      <c r="M177" t="s">
+        <v>53</v>
+      </c>
+      <c r="N177" t="s">
+        <v>54</v>
+      </c>
+      <c r="O177" t="s">
+        <v>0</v>
+      </c>
+      <c r="P177" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>5</v>
       </c>
@@ -16916,8 +22833,23 @@
       <c r="I178" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L178" t="s">
+        <v>86</v>
+      </c>
+      <c r="M178" t="s">
+        <v>53</v>
+      </c>
+      <c r="N178" t="s">
+        <v>54</v>
+      </c>
+      <c r="O178" t="s">
+        <v>2</v>
+      </c>
+      <c r="P178" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>5</v>
       </c>
@@ -16942,8 +22874,23 @@
       <c r="I179" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L179" t="s">
+        <v>86</v>
+      </c>
+      <c r="M179" t="s">
+        <v>53</v>
+      </c>
+      <c r="N179" t="s">
+        <v>54</v>
+      </c>
+      <c r="O179" t="s">
+        <v>0</v>
+      </c>
+      <c r="P179" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>6</v>
       </c>
@@ -16968,8 +22915,23 @@
       <c r="I180" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L180" t="s">
+        <v>87</v>
+      </c>
+      <c r="M180" t="s">
+        <v>53</v>
+      </c>
+      <c r="N180" t="s">
+        <v>54</v>
+      </c>
+      <c r="O180" t="s">
+        <v>2</v>
+      </c>
+      <c r="P180" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>6</v>
       </c>
@@ -16994,8 +22956,23 @@
       <c r="I181" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L181" t="s">
+        <v>87</v>
+      </c>
+      <c r="M181" t="s">
+        <v>53</v>
+      </c>
+      <c r="N181" t="s">
+        <v>54</v>
+      </c>
+      <c r="O181" t="s">
+        <v>0</v>
+      </c>
+      <c r="P181" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>7</v>
       </c>
@@ -17020,8 +22997,23 @@
       <c r="I182" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L182" t="s">
+        <v>85</v>
+      </c>
+      <c r="M182" t="s">
+        <v>55</v>
+      </c>
+      <c r="N182" t="s">
+        <v>56</v>
+      </c>
+      <c r="O182" t="s">
+        <v>2</v>
+      </c>
+      <c r="P182" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>7</v>
       </c>
@@ -17046,8 +23038,23 @@
       <c r="I183" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L183" t="s">
+        <v>85</v>
+      </c>
+      <c r="M183" t="s">
+        <v>55</v>
+      </c>
+      <c r="N183" t="s">
+        <v>56</v>
+      </c>
+      <c r="O183" t="s">
+        <v>0</v>
+      </c>
+      <c r="P183" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>20</v>
       </c>
@@ -17072,8 +23079,23 @@
       <c r="I184" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L184" t="s">
+        <v>86</v>
+      </c>
+      <c r="M184" t="s">
+        <v>55</v>
+      </c>
+      <c r="N184" t="s">
+        <v>56</v>
+      </c>
+      <c r="O184" t="s">
+        <v>2</v>
+      </c>
+      <c r="P184" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>20</v>
       </c>
@@ -17098,8 +23120,23 @@
       <c r="I185" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L185" t="s">
+        <v>86</v>
+      </c>
+      <c r="M185" t="s">
+        <v>55</v>
+      </c>
+      <c r="N185" t="s">
+        <v>56</v>
+      </c>
+      <c r="O185" t="s">
+        <v>0</v>
+      </c>
+      <c r="P185" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>5</v>
       </c>
@@ -17124,8 +23161,23 @@
       <c r="I186" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L186" t="s">
+        <v>87</v>
+      </c>
+      <c r="M186" t="s">
+        <v>55</v>
+      </c>
+      <c r="N186" t="s">
+        <v>56</v>
+      </c>
+      <c r="O186" t="s">
+        <v>2</v>
+      </c>
+      <c r="P186" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>5</v>
       </c>
@@ -17150,8 +23202,23 @@
       <c r="I187" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L187" t="s">
+        <v>87</v>
+      </c>
+      <c r="M187" t="s">
+        <v>55</v>
+      </c>
+      <c r="N187" t="s">
+        <v>56</v>
+      </c>
+      <c r="O187" t="s">
+        <v>0</v>
+      </c>
+      <c r="P187" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>6</v>
       </c>
@@ -17176,8 +23243,23 @@
       <c r="I188" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L188" t="s">
+        <v>85</v>
+      </c>
+      <c r="M188" t="s">
+        <v>67</v>
+      </c>
+      <c r="N188" t="s">
+        <v>68</v>
+      </c>
+      <c r="O188" t="s">
+        <v>2</v>
+      </c>
+      <c r="P188" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>6</v>
       </c>
@@ -17202,8 +23284,23 @@
       <c r="I189" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L189" t="s">
+        <v>85</v>
+      </c>
+      <c r="M189" t="s">
+        <v>67</v>
+      </c>
+      <c r="N189" t="s">
+        <v>68</v>
+      </c>
+      <c r="O189" t="s">
+        <v>0</v>
+      </c>
+      <c r="P189" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>7</v>
       </c>
@@ -17228,8 +23325,23 @@
       <c r="I190" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L190" t="s">
+        <v>86</v>
+      </c>
+      <c r="M190" t="s">
+        <v>67</v>
+      </c>
+      <c r="N190" t="s">
+        <v>68</v>
+      </c>
+      <c r="O190" t="s">
+        <v>2</v>
+      </c>
+      <c r="P190" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>7</v>
       </c>
@@ -17254,8 +23366,23 @@
       <c r="I191" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L191" t="s">
+        <v>86</v>
+      </c>
+      <c r="M191" t="s">
+        <v>67</v>
+      </c>
+      <c r="N191" t="s">
+        <v>68</v>
+      </c>
+      <c r="O191" t="s">
+        <v>0</v>
+      </c>
+      <c r="P191" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>20</v>
       </c>
@@ -17280,8 +23407,23 @@
       <c r="I192" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L192" t="s">
+        <v>87</v>
+      </c>
+      <c r="M192" t="s">
+        <v>67</v>
+      </c>
+      <c r="N192" t="s">
+        <v>68</v>
+      </c>
+      <c r="O192" t="s">
+        <v>2</v>
+      </c>
+      <c r="P192" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>20</v>
       </c>
@@ -17306,8 +23448,23 @@
       <c r="I193" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L193" t="s">
+        <v>87</v>
+      </c>
+      <c r="M193" t="s">
+        <v>67</v>
+      </c>
+      <c r="N193" t="s">
+        <v>68</v>
+      </c>
+      <c r="O193" t="s">
+        <v>0</v>
+      </c>
+      <c r="P193" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>5</v>
       </c>
@@ -17332,8 +23489,23 @@
       <c r="I194" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L194" t="s">
+        <v>85</v>
+      </c>
+      <c r="M194" t="s">
+        <v>69</v>
+      </c>
+      <c r="N194" t="s">
+        <v>70</v>
+      </c>
+      <c r="O194" t="s">
+        <v>2</v>
+      </c>
+      <c r="P194" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>5</v>
       </c>
@@ -17358,8 +23530,23 @@
       <c r="I195" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L195" t="s">
+        <v>85</v>
+      </c>
+      <c r="M195" t="s">
+        <v>69</v>
+      </c>
+      <c r="N195" t="s">
+        <v>70</v>
+      </c>
+      <c r="O195" t="s">
+        <v>0</v>
+      </c>
+      <c r="P195" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>6</v>
       </c>
@@ -17384,8 +23571,23 @@
       <c r="I196" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L196" t="s">
+        <v>86</v>
+      </c>
+      <c r="M196" t="s">
+        <v>69</v>
+      </c>
+      <c r="N196" t="s">
+        <v>70</v>
+      </c>
+      <c r="O196" t="s">
+        <v>2</v>
+      </c>
+      <c r="P196" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>6</v>
       </c>
@@ -17410,8 +23612,23 @@
       <c r="I197" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L197" t="s">
+        <v>86</v>
+      </c>
+      <c r="M197" t="s">
+        <v>69</v>
+      </c>
+      <c r="N197" t="s">
+        <v>70</v>
+      </c>
+      <c r="O197" t="s">
+        <v>0</v>
+      </c>
+      <c r="P197" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>7</v>
       </c>
@@ -17436,8 +23653,23 @@
       <c r="I198" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L198" t="s">
+        <v>87</v>
+      </c>
+      <c r="M198" t="s">
+        <v>69</v>
+      </c>
+      <c r="N198" t="s">
+        <v>70</v>
+      </c>
+      <c r="O198" t="s">
+        <v>2</v>
+      </c>
+      <c r="P198" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>7</v>
       </c>
@@ -17462,8 +23694,23 @@
       <c r="I199" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L199" t="s">
+        <v>87</v>
+      </c>
+      <c r="M199" t="s">
+        <v>69</v>
+      </c>
+      <c r="N199" t="s">
+        <v>70</v>
+      </c>
+      <c r="O199" t="s">
+        <v>0</v>
+      </c>
+      <c r="P199" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>16</v>
       </c>
@@ -17489,7 +23736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>16</v>
       </c>
@@ -17515,7 +23762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>17</v>
       </c>
@@ -17541,7 +23788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>17</v>
       </c>
@@ -17567,7 +23814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>18</v>
       </c>
@@ -17593,7 +23840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>18</v>
       </c>
@@ -17619,7 +23866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>19</v>
       </c>
@@ -17645,7 +23892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>19</v>
       </c>
@@ -17671,7 +23918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>20</v>
       </c>
@@ -19351,6 +25598,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TrackerID xmlns="e73541d3-5dbc-467b-ad85-92b29e93bc53">685</TrackerID>
+    <MoveTo xmlns="2541d45d-41ad-4814-bf67-1422fc7ee58e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010089726FB0C1A31D49973FEF98EF33984E" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="885697be649c75ec85dfef4b121aaf2b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e73541d3-5dbc-467b-ad85-92b29e93bc53" xmlns:ns3="2541d45d-41ad-4814-bf67-1422fc7ee58e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="47018dbbc9a0e660afa085cd3e3ec970" ns2:_="" ns3:_="">
     <xsd:import namespace="e73541d3-5dbc-467b-ad85-92b29e93bc53"/>
@@ -19487,25 +25752,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2400BD1B-07FA-4CC2-BD11-B1CD3AC52BA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="e73541d3-5dbc-467b-ad85-92b29e93bc53"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2541d45d-41ad-4814-bf67-1422fc7ee58e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TrackerID xmlns="e73541d3-5dbc-467b-ad85-92b29e93bc53">685</TrackerID>
-    <MoveTo xmlns="2541d45d-41ad-4814-bf67-1422fc7ee58e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D3EA677-7C4B-4418-9CD0-DA2D17E4A64C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70C4F3F7-1257-4041-B1E0-7D6A976D1E09}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19522,29 +25794,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D3EA677-7C4B-4418-9CD0-DA2D17E4A64C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2400BD1B-07FA-4CC2-BD11-B1CD3AC52BA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="e73541d3-5dbc-467b-ad85-92b29e93bc53"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2541d45d-41ad-4814-bf67-1422fc7ee58e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/HLE.xlsx
+++ b/data/HLE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u442941\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhiannonbatstone/population_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E447B4CF-311F-E04D-86BE-A1D38FCB8366}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="14760" yWindow="-24000" windowWidth="19000" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HLE" sheetId="11" r:id="rId1"/>
@@ -22,18 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="88">
   <si>
     <t>Males</t>
   </si>
@@ -289,11 +284,20 @@
   <si>
     <t>Perth and Kinross</t>
   </si>
+  <si>
+    <t>2017-19</t>
+  </si>
+  <si>
+    <t>S12000049</t>
+  </si>
+  <si>
+    <t>S12000050</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -638,25 +642,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H273"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H339"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="C228" sqref="C228:C229"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -682,7 +686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -708,7 +712,7 @@
         <v>70.075847489011693</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -734,7 +738,7 @@
         <v>68.403014556172593</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -760,7 +764,7 @@
         <v>66.848862873161806</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -786,7 +790,7 @@
         <v>65.735395524593699</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -812,7 +816,7 @@
         <v>66.120460068017806</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -838,7 +842,7 @@
         <v>64.963558672552494</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -864,7 +868,7 @@
         <v>63.564984304031199</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -890,7 +894,7 @@
         <v>63.010625495473697</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -916,7 +920,7 @@
         <v>67.254329149681297</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -942,7 +946,7 @@
         <v>70.142273903826293</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -968,7 +972,7 @@
         <v>69.122788696727895</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -994,7 +998,7 @@
         <v>70.001348312639095</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1020,7 +1024,7 @@
         <v>67.546422990757307</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1046,7 +1050,7 @@
         <v>68.629285415978998</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1072,7 +1076,7 @@
         <v>69.779541975383907</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1098,7 +1102,7 @@
         <v>70.5947681054176</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1124,7 +1128,7 @@
         <v>66.397119999258393</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1150,7 +1154,7 @@
         <v>66.6232265101129</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1176,7 +1180,7 @@
         <v>65.343367553735405</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1202,7 +1206,7 @@
         <v>65.539642766869406</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1228,7 +1232,7 @@
         <v>67.141526410640694</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1254,7 +1258,7 @@
         <v>66.264079868838806</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1280,7 +1284,7 @@
         <v>64.892964103713993</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1306,7 +1310,7 @@
         <v>63.270265469890703</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1332,7 +1336,7 @@
         <v>65.368561980293904</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1358,7 +1362,7 @@
         <v>66.349036946715202</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1384,7 +1388,7 @@
         <v>64.344659428265999</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1410,7 +1414,7 @@
         <v>64.909628892966396</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1436,7 +1440,7 @@
         <v>65.300124927097997</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1462,7 +1466,7 @@
         <v>65.987575950301704</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1488,7 +1492,7 @@
         <v>65.823466832507293</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1514,7 +1518,7 @@
         <v>66.695781091488698</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -1540,7 +1544,7 @@
         <v>67.375515060849906</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1566,7 +1570,7 @@
         <v>68.497459776272805</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1592,7 +1596,7 @@
         <v>67.540418392824606</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1618,7 +1622,7 @@
         <v>66.104650434502602</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -1644,7 +1648,7 @@
         <v>66.587490875359507</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1670,7 +1674,7 @@
         <v>66.891479477950298</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1696,7 +1700,7 @@
         <v>66.863918858875607</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1722,7 +1726,7 @@
         <v>67.198253968678898</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -1748,7 +1752,7 @@
         <v>63.4169634555941</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1774,7 +1778,7 @@
         <v>61.331660847117099</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1800,7 +1804,7 @@
         <v>63.083686809793498</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1826,7 +1830,7 @@
         <v>64.502413702527306</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -1852,7 +1856,7 @@
         <v>63.0775739662378</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1878,7 +1882,7 @@
         <v>62.124196355956798</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -1904,7 +1908,7 @@
         <v>65.007148032242696</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1930,7 +1934,7 @@
         <v>64.736424752204599</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -1956,7 +1960,7 @@
         <v>65.371289640374698</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1982,7 +1986,7 @@
         <v>67.740229835936105</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -2008,7 +2012,7 @@
         <v>65.923359188301603</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2034,7 +2038,7 @@
         <v>66.3961972885253</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -2060,7 +2064,7 @@
         <v>65.010278668313504</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -2086,7 +2090,7 @@
         <v>66.056774818153301</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -2112,7 +2116,7 @@
         <v>65.970606517153897</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -2138,7 +2142,7 @@
         <v>65.807040685706099</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -2164,7 +2168,7 @@
         <v>63.989132056066701</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -2190,7 +2194,7 @@
         <v>63.652076380790596</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -2216,7 +2220,7 @@
         <v>62.052287411741901</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2242,7 +2246,7 @@
         <v>61.900254687945598</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -2268,7 +2272,7 @@
         <v>60.113989500983898</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -2294,7 +2298,7 @@
         <v>56.9323580925223</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -2320,7 +2324,7 @@
         <v>58.639486221201203</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -2346,7 +2350,7 @@
         <v>58.5381699351815</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -2372,7 +2376,7 @@
         <v>60.272413096237898</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -2398,7 +2402,7 @@
         <v>60.300044855795001</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -2424,7 +2428,7 @@
         <v>60.382250436571901</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -2450,7 +2454,7 @@
         <v>60.883962134839898</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -2476,7 +2480,7 @@
         <v>59.808412393752398</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -2502,7 +2506,7 @@
         <v>61.147677102830599</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -2528,7 +2532,7 @@
         <v>62.104910752520603</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -2554,7 +2558,7 @@
         <v>59.879917170479303</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -2580,7 +2584,7 @@
         <v>69.607003838904106</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -2606,7 +2610,7 @@
         <v>71.335170529740495</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -2632,7 +2636,7 @@
         <v>69.975323106482804</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -2658,7 +2662,7 @@
         <v>70.146431754754104</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -2684,7 +2688,7 @@
         <v>66.738170669527406</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -2710,7 +2714,7 @@
         <v>67.048959998099306</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -2736,7 +2740,7 @@
         <v>70.476165749492594</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -2762,7 +2766,7 @@
         <v>71.252712956565901</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -2788,7 +2792,7 @@
         <v>70.035466784596593</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -2814,7 +2818,7 @@
         <v>69.501419944408497</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -2840,7 +2844,7 @@
         <v>66.113294170215795</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -2866,7 +2870,7 @@
         <v>66.173302712097495</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -2892,7 +2896,7 @@
         <v>65.582637463250407</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -2918,7 +2922,7 @@
         <v>68.072887414476696</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -2944,7 +2948,7 @@
         <v>67.169819221668405</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -2970,7 +2974,7 @@
         <v>67.303721898865206</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -2996,7 +3000,7 @@
         <v>68.864339187365701</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -3022,7 +3026,7 @@
         <v>68.693541423056999</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -3048,7 +3052,7 @@
         <v>67.6692985450387</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -3074,7 +3078,7 @@
         <v>68.316584263850103</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -3100,7 +3104,7 @@
         <v>67.583316893324593</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -3126,7 +3130,7 @@
         <v>67.849977583803906</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -3152,7 +3156,7 @@
         <v>68.480788623569794</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -3178,7 +3182,7 @@
         <v>70.653408042768007</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -3204,7 +3208,7 @@
         <v>65.622546901726693</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -3230,7 +3234,7 @@
         <v>65.388282994353901</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -3256,7 +3260,7 @@
         <v>62.865803487504898</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -3282,7 +3286,7 @@
         <v>62.159942762157101</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -3308,7 +3312,7 @@
         <v>63.328158378057402</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -3334,7 +3338,7 @@
         <v>63.007720455626398</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -3360,7 +3364,7 @@
         <v>65.028032514990699</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -3386,7 +3390,7 @@
         <v>63.896157712364797</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>20</v>
       </c>
@@ -3412,7 +3416,7 @@
         <v>62.561401801110399</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -3438,7 +3442,7 @@
         <v>64.450752171148594</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -3464,7 +3468,7 @@
         <v>64.262121352275898</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -3490,7 +3494,7 @@
         <v>62.343574953703097</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>20</v>
       </c>
@@ -3516,7 +3520,7 @@
         <v>63.311510978769803</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -3542,7 +3546,7 @@
         <v>63.196481608770199</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -3568,7 +3572,7 @@
         <v>64.170312047051496</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -3594,7 +3598,7 @@
         <v>62.943669525270003</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -3620,7 +3624,7 @@
         <v>59.375683999755502</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -3646,7 +3650,7 @@
         <v>60.987888158749897</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -3672,7 +3676,7 @@
         <v>60.8374714088405</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -3698,7 +3702,7 @@
         <v>60.119250795089101</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>20</v>
       </c>
@@ -3724,7 +3728,7 @@
         <v>57.688050299555798</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -3750,7 +3754,7 @@
         <v>60.343679445626897</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -3776,7 +3780,7 @@
         <v>58.991422246658097</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -3802,7 +3806,7 @@
         <v>57.717488079886898</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>20</v>
       </c>
@@ -3828,7 +3832,7 @@
         <v>67.237291165348793</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -3854,7 +3858,7 @@
         <v>65.533405614456399</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -3880,7 +3884,7 @@
         <v>66.170687265992399</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -3906,7 +3910,7 @@
         <v>68.172092797557198</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>20</v>
       </c>
@@ -3932,7 +3936,7 @@
         <v>66.487942829101598</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -3958,7 +3962,7 @@
         <v>67.207661702045399</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -3984,7 +3988,7 @@
         <v>68.083409352931099</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -4010,7 +4014,7 @@
         <v>66.269087341894405</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -4036,7 +4040,7 @@
         <v>61.568337233271798</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -4062,7 +4066,7 @@
         <v>62.525298585284901</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -4088,7 +4092,7 @@
         <v>61.506756069321199</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -4114,7 +4118,7 @@
         <v>61.763463200717503</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>20</v>
       </c>
@@ -4140,7 +4144,7 @@
         <v>60.0359085659179</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -4166,7 +4170,7 @@
         <v>61.494875084315602</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>6</v>
       </c>
@@ -4192,7 +4196,7 @@
         <v>62.232559036564297</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -4218,7 +4222,7 @@
         <v>61.485421697223302</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>20</v>
       </c>
@@ -4244,7 +4248,7 @@
         <v>63.6300879862115</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -4270,7 +4274,7 @@
         <v>65.962695506169297</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -4296,7 +4300,7 @@
         <v>66.235687395070897</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -4322,7 +4326,7 @@
         <v>65.855821787127198</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>20</v>
       </c>
@@ -4348,7 +4352,7 @@
         <v>64.417106449775005</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -4374,7 +4378,7 @@
         <v>64.060317034476597</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -4400,7 +4404,7 @@
         <v>63.9201486263321</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -4426,7 +4430,7 @@
         <v>63.287975418737503</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -4452,7 +4456,7 @@
         <v>67.396505860003302</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -4478,7 +4482,7 @@
         <v>68.040258848270796</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -4504,7 +4508,7 @@
         <v>66.313387756014706</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -4530,7 +4534,7 @@
         <v>64.389917125523496</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -4556,7 +4560,7 @@
         <v>68.054432268901905</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -4582,7 +4586,7 @@
         <v>67.432823297684394</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -4608,7 +4612,7 @@
         <v>66.180904690681501</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -4634,7 +4638,7 @@
         <v>64.163305890158597</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>20</v>
       </c>
@@ -4660,7 +4664,7 @@
         <v>72.721650158811002</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>5</v>
       </c>
@@ -4686,7 +4690,7 @@
         <v>69.2204243278711</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -4712,7 +4716,7 @@
         <v>70.488642806143702</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -4738,7 +4742,7 @@
         <v>69.979752848358899</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>20</v>
       </c>
@@ -4764,7 +4768,7 @@
         <v>69.828442746929895</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>5</v>
       </c>
@@ -4790,7 +4794,7 @@
         <v>67.810667681566599</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -4816,7 +4820,7 @@
         <v>67.665907815217594</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -4842,7 +4846,7 @@
         <v>68.464766666045506</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>20</v>
       </c>
@@ -4868,7 +4872,7 @@
         <v>58.501255900437698</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>5</v>
       </c>
@@ -4894,7 +4898,7 @@
         <v>59.068775658282902</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -4920,7 +4924,7 @@
         <v>59.2110191146826</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -4946,7 +4950,7 @@
         <v>58.181500286692398</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>20</v>
       </c>
@@ -4972,7 +4976,7 @@
         <v>60.377757818801797</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -4998,7 +5002,7 @@
         <v>58.314938953868399</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -5024,7 +5028,7 @@
         <v>58.046551808943001</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -5050,7 +5054,7 @@
         <v>59.4720778187653</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>20</v>
       </c>
@@ -5076,7 +5080,7 @@
         <v>61.278422356104898</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>5</v>
       </c>
@@ -5102,7 +5106,7 @@
         <v>61.370063027329799</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>6</v>
       </c>
@@ -5128,7 +5132,7 @@
         <v>62.103915439406897</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>7</v>
       </c>
@@ -5154,7 +5158,7 @@
         <v>60.910570521699498</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>20</v>
       </c>
@@ -5180,7 +5184,7 @@
         <v>59.730834236764601</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -5206,7 +5210,7 @@
         <v>60.209678976188201</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>6</v>
       </c>
@@ -5232,7 +5236,7 @@
         <v>59.896420192305399</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>7</v>
       </c>
@@ -5258,7 +5262,7 @@
         <v>59.808368665338399</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>20</v>
       </c>
@@ -5284,7 +5288,7 @@
         <v>78.285348619816702</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>5</v>
       </c>
@@ -5310,7 +5314,7 @@
         <v>77.379577031305899</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>6</v>
       </c>
@@ -5336,7 +5340,7 @@
         <v>78.918818993646298</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -5362,7 +5366,7 @@
         <v>77.489846275260703</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>20</v>
       </c>
@@ -5388,7 +5392,7 @@
         <v>71.731816440208405</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>5</v>
       </c>
@@ -5414,7 +5418,7 @@
         <v>72.353090051195494</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>6</v>
       </c>
@@ -5440,7 +5444,7 @@
         <v>69.772719346866495</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -5466,7 +5470,7 @@
         <v>70.744810920936601</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>20</v>
       </c>
@@ -5492,7 +5496,7 @@
         <v>72.3638012980756</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -5518,7 +5522,7 @@
         <v>71.880607209367994</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>6</v>
       </c>
@@ -5544,7 +5548,7 @@
         <v>70.042322618831804</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -5570,7 +5574,7 @@
         <v>68.2094393134726</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>20</v>
       </c>
@@ -5596,7 +5600,7 @@
         <v>68.319451458291596</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>5</v>
       </c>
@@ -5622,7 +5626,7 @@
         <v>68.628440864837501</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>6</v>
       </c>
@@ -5648,7 +5652,7 @@
         <v>69.382256928030898</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -5674,7 +5678,7 @@
         <v>68.491844063995998</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>20</v>
       </c>
@@ -5700,7 +5704,7 @@
         <v>61.779391084487898</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -5726,7 +5730,7 @@
         <v>61.440889273312102</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>6</v>
       </c>
@@ -5752,7 +5756,7 @@
         <v>62.854569048880897</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -5778,7 +5782,7 @@
         <v>64.1248643568061</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>20</v>
       </c>
@@ -5804,7 +5808,7 @@
         <v>62.207104416955602</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -5830,7 +5834,7 @@
         <v>62.285196925718502</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>6</v>
       </c>
@@ -5856,7 +5860,7 @@
         <v>62.7862902029037</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>7</v>
       </c>
@@ -5882,7 +5886,7 @@
         <v>62.026260504145597</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>16</v>
       </c>
@@ -5908,7 +5912,7 @@
         <v>63.41366</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>17</v>
       </c>
@@ -5934,7 +5938,7 @@
         <v>63.219059999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>18</v>
       </c>
@@ -5960,7 +5964,7 @@
         <v>63.628909999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>19</v>
       </c>
@@ -5986,7 +5990,7 @@
         <v>63.658209999999997</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>20</v>
       </c>
@@ -6012,7 +6016,7 @@
         <v>63.191679999999998</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>5</v>
       </c>
@@ -6038,7 +6042,7 @@
         <v>63.760599999999997</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>6</v>
       </c>
@@ -6064,7 +6068,7 @@
         <v>63.11985</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -6090,7 +6094,7 @@
         <v>62.684420000000003</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>16</v>
       </c>
@@ -6116,7 +6120,7 @@
         <v>61.413240000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>17</v>
       </c>
@@ -6142,7 +6146,7 @@
         <v>61.75638</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>18</v>
       </c>
@@ -6168,7 +6172,7 @@
         <v>62.041580000000003</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>19</v>
       </c>
@@ -6194,7 +6198,7 @@
         <v>62.126350000000002</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>20</v>
       </c>
@@ -6220,7 +6224,7 @@
         <v>62.242060000000002</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>5</v>
       </c>
@@ -6246,7 +6250,7 @@
         <v>62.637970000000003</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>6</v>
       </c>
@@ -6272,7 +6276,7 @@
         <v>62.740279999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -6298,7 +6302,7 @@
         <v>62.29712</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>20</v>
       </c>
@@ -6324,7 +6328,7 @@
         <v>70.142922551566798</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -6350,7 +6354,7 @@
         <v>69.180238697027306</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>6</v>
       </c>
@@ -6376,7 +6380,7 @@
         <v>67.259491365589895</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -6402,7 +6406,7 @@
         <v>67.337959411402295</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>20</v>
       </c>
@@ -6428,7 +6432,7 @@
         <v>66.692829415438695</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>5</v>
       </c>
@@ -6454,7 +6458,7 @@
         <v>66.565785139467096</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>6</v>
       </c>
@@ -6480,7 +6484,7 @@
         <v>66.256056966455901</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -6506,7 +6510,7 @@
         <v>65.351931065586001</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>20</v>
       </c>
@@ -6532,7 +6536,7 @@
         <v>74.570998739740901</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>5</v>
       </c>
@@ -6558,7 +6562,7 @@
         <v>75.327997760794204</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>6</v>
       </c>
@@ -6584,7 +6588,7 @@
         <v>71.793324991166401</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>7</v>
       </c>
@@ -6610,7 +6614,7 @@
         <v>65.350056500026497</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>20</v>
       </c>
@@ -6636,7 +6640,7 @@
         <v>69.633352993536107</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>5</v>
       </c>
@@ -6662,7 +6666,7 @@
         <v>71.371454656814095</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>6</v>
       </c>
@@ -6688,7 +6692,7 @@
         <v>72.003737368182499</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>7</v>
       </c>
@@ -6714,7 +6718,7 @@
         <v>72.958322904994105</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>20</v>
       </c>
@@ -6740,7 +6744,7 @@
         <v>62.6892160096737</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>5</v>
       </c>
@@ -6766,7 +6770,7 @@
         <v>63.347891692794299</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>6</v>
       </c>
@@ -6792,7 +6796,7 @@
         <v>65.7249118994946</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>7</v>
       </c>
@@ -6818,7 +6822,7 @@
         <v>65.700598461900299</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>20</v>
       </c>
@@ -6844,7 +6848,7 @@
         <v>64.267068232735596</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -6870,7 +6874,7 @@
         <v>64.081157592196504</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>6</v>
       </c>
@@ -6896,7 +6900,7 @@
         <v>63.781491042256299</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -6922,7 +6926,7 @@
         <v>63.446336589898998</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>20</v>
       </c>
@@ -6948,7 +6952,7 @@
         <v>64.854229873022604</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>5</v>
       </c>
@@ -6974,7 +6978,7 @@
         <v>65.005358464987907</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -7000,7 +7004,7 @@
         <v>64.855571059759896</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -7026,7 +7030,7 @@
         <v>64.1930169126462</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>20</v>
       </c>
@@ -7052,7 +7056,7 @@
         <v>61.934782152564502</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>5</v>
       </c>
@@ -7078,7 +7082,7 @@
         <v>63.140813767795997</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>6</v>
       </c>
@@ -7104,7 +7108,7 @@
         <v>62.6139035404547</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>7</v>
       </c>
@@ -7130,7 +7134,7 @@
         <v>61.2225574653067</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>20</v>
       </c>
@@ -7156,7 +7160,7 @@
         <v>67.460160506828899</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>5</v>
       </c>
@@ -7182,7 +7186,7 @@
         <v>67.072905401698804</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>6</v>
       </c>
@@ -7208,7 +7212,7 @@
         <v>66.500591205195903</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -7234,7 +7238,7 @@
         <v>66.325991499510806</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>20</v>
       </c>
@@ -7260,7 +7264,7 @@
         <v>66.805053746284202</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -7286,7 +7290,7 @@
         <v>66.782371244404303</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>6</v>
       </c>
@@ -7312,7 +7316,7 @@
         <v>66.809187073804296</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -7338,7 +7342,7 @@
         <v>65.430475806172296</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>20</v>
       </c>
@@ -7364,7 +7368,7 @@
         <v>60.480439361315902</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>5</v>
       </c>
@@ -7390,7 +7394,7 @@
         <v>59.837720240978001</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>6</v>
       </c>
@@ -7416,7 +7420,7 @@
         <v>61.414121108859199</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>7</v>
       </c>
@@ -7442,7 +7446,7 @@
         <v>62.387226837184102</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>20</v>
       </c>
@@ -7468,7 +7472,7 @@
         <v>58.688774272539902</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>5</v>
       </c>
@@ -7494,7 +7498,7 @@
         <v>57.742205193421803</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>6</v>
       </c>
@@ -7520,7 +7524,7 @@
         <v>60.026712817030301</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>7</v>
       </c>
@@ -7546,7 +7550,7 @@
         <v>60.085854040065598</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>20</v>
       </c>
@@ -7572,7 +7576,7 @@
         <v>60.905370410499501</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>5</v>
       </c>
@@ -7598,7 +7602,7 @@
         <v>63.385491850652301</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>6</v>
       </c>
@@ -7624,7 +7628,7 @@
         <v>64.391575345260094</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>7</v>
       </c>
@@ -7650,7 +7654,7 @@
         <v>64.062574353995601</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>20</v>
       </c>
@@ -7676,7 +7680,7 @@
         <v>64.383020917420197</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>5</v>
       </c>
@@ -7702,7 +7706,7 @@
         <v>64.286458254260396</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>6</v>
       </c>
@@ -7728,7 +7732,7 @@
         <v>64.123652744958306</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>7</v>
       </c>
@@ -7754,8 +7758,1724 @@
         <v>65.028851547390403</v>
       </c>
     </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>85</v>
+      </c>
+      <c r="B274" t="s">
+        <v>21</v>
+      </c>
+      <c r="C274" t="s">
+        <v>22</v>
+      </c>
+      <c r="D274" t="s">
+        <v>0</v>
+      </c>
+      <c r="E274" t="s">
+        <v>1</v>
+      </c>
+      <c r="F274">
+        <v>62.78</v>
+      </c>
+      <c r="G274">
+        <v>60.38</v>
+      </c>
+      <c r="H274">
+        <v>65.19</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>85</v>
+      </c>
+      <c r="B275" t="s">
+        <v>21</v>
+      </c>
+      <c r="C275" t="s">
+        <v>22</v>
+      </c>
+      <c r="D275" t="s">
+        <v>2</v>
+      </c>
+      <c r="E275" t="s">
+        <v>1</v>
+      </c>
+      <c r="F275">
+        <v>62.41</v>
+      </c>
+      <c r="G275">
+        <v>59.35</v>
+      </c>
+      <c r="H275">
+        <v>65.47</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>85</v>
+      </c>
+      <c r="B276" t="s">
+        <v>23</v>
+      </c>
+      <c r="C276" t="s">
+        <v>24</v>
+      </c>
+      <c r="D276" t="s">
+        <v>0</v>
+      </c>
+      <c r="E276" t="s">
+        <v>1</v>
+      </c>
+      <c r="F276">
+        <v>62.39</v>
+      </c>
+      <c r="G276">
+        <v>60.57</v>
+      </c>
+      <c r="H276">
+        <v>64.22</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>85</v>
+      </c>
+      <c r="B277" t="s">
+        <v>23</v>
+      </c>
+      <c r="C277" t="s">
+        <v>24</v>
+      </c>
+      <c r="D277" t="s">
+        <v>2</v>
+      </c>
+      <c r="E277" t="s">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>62.53</v>
+      </c>
+      <c r="G277">
+        <v>60.32</v>
+      </c>
+      <c r="H277">
+        <v>64.739999999999995</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>85</v>
+      </c>
+      <c r="B278" t="s">
+        <v>25</v>
+      </c>
+      <c r="C278" t="s">
+        <v>26</v>
+      </c>
+      <c r="D278" t="s">
+        <v>0</v>
+      </c>
+      <c r="E278" t="s">
+        <v>1</v>
+      </c>
+      <c r="F278">
+        <v>59.33</v>
+      </c>
+      <c r="G278">
+        <v>57.47</v>
+      </c>
+      <c r="H278">
+        <v>61.19</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>85</v>
+      </c>
+      <c r="B279" t="s">
+        <v>25</v>
+      </c>
+      <c r="C279" t="s">
+        <v>26</v>
+      </c>
+      <c r="D279" t="s">
+        <v>2</v>
+      </c>
+      <c r="E279" t="s">
+        <v>1</v>
+      </c>
+      <c r="F279">
+        <v>58.24</v>
+      </c>
+      <c r="G279">
+        <v>56.07</v>
+      </c>
+      <c r="H279">
+        <v>60.41</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>85</v>
+      </c>
+      <c r="B280" t="s">
+        <v>27</v>
+      </c>
+      <c r="C280" t="s">
+        <v>28</v>
+      </c>
+      <c r="D280" t="s">
+        <v>0</v>
+      </c>
+      <c r="E280" t="s">
+        <v>1</v>
+      </c>
+      <c r="F280">
+        <v>65.2</v>
+      </c>
+      <c r="G280">
+        <v>63.25</v>
+      </c>
+      <c r="H280">
+        <v>67.150000000000006</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>85</v>
+      </c>
+      <c r="B281" t="s">
+        <v>27</v>
+      </c>
+      <c r="C281" t="s">
+        <v>28</v>
+      </c>
+      <c r="D281" t="s">
+        <v>2</v>
+      </c>
+      <c r="E281" t="s">
+        <v>1</v>
+      </c>
+      <c r="F281">
+        <v>64.61</v>
+      </c>
+      <c r="G281">
+        <v>62.47</v>
+      </c>
+      <c r="H281">
+        <v>66.75</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>85</v>
+      </c>
+      <c r="B282" t="s">
+        <v>29</v>
+      </c>
+      <c r="C282" t="s">
+        <v>30</v>
+      </c>
+      <c r="D282" t="s">
+        <v>0</v>
+      </c>
+      <c r="E282" t="s">
+        <v>1</v>
+      </c>
+      <c r="F282">
+        <v>68.28</v>
+      </c>
+      <c r="G282">
+        <v>66.44</v>
+      </c>
+      <c r="H282">
+        <v>70.13</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>85</v>
+      </c>
+      <c r="B283" t="s">
+        <v>29</v>
+      </c>
+      <c r="C283" t="s">
+        <v>30</v>
+      </c>
+      <c r="D283" t="s">
+        <v>2</v>
+      </c>
+      <c r="E283" t="s">
+        <v>1</v>
+      </c>
+      <c r="F283">
+        <v>67.19</v>
+      </c>
+      <c r="G283">
+        <v>65.040000000000006</v>
+      </c>
+      <c r="H283">
+        <v>69.33</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>85</v>
+      </c>
+      <c r="B284" t="s">
+        <v>31</v>
+      </c>
+      <c r="C284" t="s">
+        <v>32</v>
+      </c>
+      <c r="D284" t="s">
+        <v>0</v>
+      </c>
+      <c r="E284" t="s">
+        <v>1</v>
+      </c>
+      <c r="F284">
+        <v>66.989999999999995</v>
+      </c>
+      <c r="G284">
+        <v>64.069999999999993</v>
+      </c>
+      <c r="H284">
+        <v>69.92</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>85</v>
+      </c>
+      <c r="B285" t="s">
+        <v>31</v>
+      </c>
+      <c r="C285" t="s">
+        <v>32</v>
+      </c>
+      <c r="D285" t="s">
+        <v>2</v>
+      </c>
+      <c r="E285" t="s">
+        <v>1</v>
+      </c>
+      <c r="F285">
+        <v>69.58</v>
+      </c>
+      <c r="G285">
+        <v>66.760000000000005</v>
+      </c>
+      <c r="H285">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>85</v>
+      </c>
+      <c r="B286" t="s">
+        <v>33</v>
+      </c>
+      <c r="C286" t="s">
+        <v>34</v>
+      </c>
+      <c r="D286" t="s">
+        <v>0</v>
+      </c>
+      <c r="E286" t="s">
+        <v>1</v>
+      </c>
+      <c r="F286">
+        <v>62.39</v>
+      </c>
+      <c r="G286">
+        <v>60.66</v>
+      </c>
+      <c r="H286">
+        <v>64.12</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>85</v>
+      </c>
+      <c r="B287" t="s">
+        <v>33</v>
+      </c>
+      <c r="C287" t="s">
+        <v>34</v>
+      </c>
+      <c r="D287" t="s">
+        <v>2</v>
+      </c>
+      <c r="E287" t="s">
+        <v>1</v>
+      </c>
+      <c r="F287">
+        <v>59.71</v>
+      </c>
+      <c r="G287">
+        <v>57.8</v>
+      </c>
+      <c r="H287">
+        <v>61.63</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>85</v>
+      </c>
+      <c r="B288" t="s">
+        <v>35</v>
+      </c>
+      <c r="C288" t="s">
+        <v>36</v>
+      </c>
+      <c r="D288" t="s">
+        <v>0</v>
+      </c>
+      <c r="E288" t="s">
+        <v>1</v>
+      </c>
+      <c r="F288">
+        <v>63.95</v>
+      </c>
+      <c r="G288">
+        <v>61.95</v>
+      </c>
+      <c r="H288">
+        <v>65.94</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>85</v>
+      </c>
+      <c r="B289" t="s">
+        <v>35</v>
+      </c>
+      <c r="C289" t="s">
+        <v>36</v>
+      </c>
+      <c r="D289" t="s">
+        <v>2</v>
+      </c>
+      <c r="E289" t="s">
+        <v>1</v>
+      </c>
+      <c r="F289">
+        <v>64.36</v>
+      </c>
+      <c r="G289">
+        <v>61.6</v>
+      </c>
+      <c r="H289">
+        <v>67.12</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>85</v>
+      </c>
+      <c r="B290" t="s">
+        <v>37</v>
+      </c>
+      <c r="C290" t="s">
+        <v>38</v>
+      </c>
+      <c r="D290" t="s">
+        <v>0</v>
+      </c>
+      <c r="E290" t="s">
+        <v>1</v>
+      </c>
+      <c r="F290">
+        <v>58.35</v>
+      </c>
+      <c r="G290">
+        <v>56.38</v>
+      </c>
+      <c r="H290">
+        <v>60.32</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>85</v>
+      </c>
+      <c r="B291" t="s">
+        <v>37</v>
+      </c>
+      <c r="C291" t="s">
+        <v>38</v>
+      </c>
+      <c r="D291" t="s">
+        <v>2</v>
+      </c>
+      <c r="E291" t="s">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>59.65</v>
+      </c>
+      <c r="G291">
+        <v>57.62</v>
+      </c>
+      <c r="H291">
+        <v>61.69</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>85</v>
+      </c>
+      <c r="B292" t="s">
+        <v>39</v>
+      </c>
+      <c r="C292" t="s">
+        <v>40</v>
+      </c>
+      <c r="D292" t="s">
+        <v>0</v>
+      </c>
+      <c r="E292" t="s">
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>63.36</v>
+      </c>
+      <c r="G292">
+        <v>61.13</v>
+      </c>
+      <c r="H292">
+        <v>65.59</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>85</v>
+      </c>
+      <c r="B293" t="s">
+        <v>39</v>
+      </c>
+      <c r="C293" t="s">
+        <v>40</v>
+      </c>
+      <c r="D293" t="s">
+        <v>2</v>
+      </c>
+      <c r="E293" t="s">
+        <v>1</v>
+      </c>
+      <c r="F293">
+        <v>63.97</v>
+      </c>
+      <c r="G293">
+        <v>61.64</v>
+      </c>
+      <c r="H293">
+        <v>66.290000000000006</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>85</v>
+      </c>
+      <c r="B294" t="s">
+        <v>41</v>
+      </c>
+      <c r="C294" t="s">
+        <v>42</v>
+      </c>
+      <c r="D294" t="s">
+        <v>0</v>
+      </c>
+      <c r="E294" t="s">
+        <v>1</v>
+      </c>
+      <c r="F294">
+        <v>61.48</v>
+      </c>
+      <c r="G294">
+        <v>59.53</v>
+      </c>
+      <c r="H294">
+        <v>63.43</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>85</v>
+      </c>
+      <c r="B295" t="s">
+        <v>41</v>
+      </c>
+      <c r="C295" t="s">
+        <v>42</v>
+      </c>
+      <c r="D295" t="s">
+        <v>2</v>
+      </c>
+      <c r="E295" t="s">
+        <v>1</v>
+      </c>
+      <c r="F295">
+        <v>61.38</v>
+      </c>
+      <c r="G295">
+        <v>58.98</v>
+      </c>
+      <c r="H295">
+        <v>63.78</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>85</v>
+      </c>
+      <c r="B296" t="s">
+        <v>43</v>
+      </c>
+      <c r="C296" t="s">
+        <v>44</v>
+      </c>
+      <c r="D296" t="s">
+        <v>0</v>
+      </c>
+      <c r="E296" t="s">
+        <v>1</v>
+      </c>
+      <c r="F296">
+        <v>58.52</v>
+      </c>
+      <c r="G296">
+        <v>56.58</v>
+      </c>
+      <c r="H296">
+        <v>60.46</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>85</v>
+      </c>
+      <c r="B297" t="s">
+        <v>43</v>
+      </c>
+      <c r="C297" t="s">
+        <v>44</v>
+      </c>
+      <c r="D297" t="s">
+        <v>2</v>
+      </c>
+      <c r="E297" t="s">
+        <v>1</v>
+      </c>
+      <c r="F297">
+        <v>56.34</v>
+      </c>
+      <c r="G297">
+        <v>54.23</v>
+      </c>
+      <c r="H297">
+        <v>58.44</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>85</v>
+      </c>
+      <c r="B298" t="s">
+        <v>45</v>
+      </c>
+      <c r="C298" t="s">
+        <v>46</v>
+      </c>
+      <c r="D298" t="s">
+        <v>0</v>
+      </c>
+      <c r="E298" t="s">
+        <v>1</v>
+      </c>
+      <c r="F298">
+        <v>69.33</v>
+      </c>
+      <c r="G298">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="H298">
+        <v>73.069999999999993</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>85</v>
+      </c>
+      <c r="B299" t="s">
+        <v>45</v>
+      </c>
+      <c r="C299" t="s">
+        <v>46</v>
+      </c>
+      <c r="D299" t="s">
+        <v>2</v>
+      </c>
+      <c r="E299" t="s">
+        <v>1</v>
+      </c>
+      <c r="F299">
+        <v>75.05</v>
+      </c>
+      <c r="G299">
+        <v>71.37</v>
+      </c>
+      <c r="H299">
+        <v>78.73</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>85</v>
+      </c>
+      <c r="B300" t="s">
+        <v>47</v>
+      </c>
+      <c r="C300" t="s">
+        <v>48</v>
+      </c>
+      <c r="D300" t="s">
+        <v>0</v>
+      </c>
+      <c r="E300" t="s">
+        <v>1</v>
+      </c>
+      <c r="F300">
+        <v>63.31</v>
+      </c>
+      <c r="G300">
+        <v>61.41</v>
+      </c>
+      <c r="H300">
+        <v>65.209999999999994</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>85</v>
+      </c>
+      <c r="B301" t="s">
+        <v>47</v>
+      </c>
+      <c r="C301" t="s">
+        <v>48</v>
+      </c>
+      <c r="D301" t="s">
+        <v>2</v>
+      </c>
+      <c r="E301" t="s">
+        <v>1</v>
+      </c>
+      <c r="F301">
+        <v>63.81</v>
+      </c>
+      <c r="G301">
+        <v>61.68</v>
+      </c>
+      <c r="H301">
+        <v>65.95</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>85</v>
+      </c>
+      <c r="B302" t="s">
+        <v>49</v>
+      </c>
+      <c r="C302" t="s">
+        <v>50</v>
+      </c>
+      <c r="D302" t="s">
+        <v>0</v>
+      </c>
+      <c r="E302" t="s">
+        <v>1</v>
+      </c>
+      <c r="F302">
+        <v>68.95</v>
+      </c>
+      <c r="G302">
+        <v>62.71</v>
+      </c>
+      <c r="H302">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>85</v>
+      </c>
+      <c r="B303" t="s">
+        <v>49</v>
+      </c>
+      <c r="C303" t="s">
+        <v>50</v>
+      </c>
+      <c r="D303" t="s">
+        <v>2</v>
+      </c>
+      <c r="E303" t="s">
+        <v>1</v>
+      </c>
+      <c r="F303">
+        <v>61.87</v>
+      </c>
+      <c r="G303">
+        <v>55.71</v>
+      </c>
+      <c r="H303">
+        <v>68.03</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>85</v>
+      </c>
+      <c r="B304" t="s">
+        <v>51</v>
+      </c>
+      <c r="C304" t="s">
+        <v>52</v>
+      </c>
+      <c r="D304" t="s">
+        <v>0</v>
+      </c>
+      <c r="E304" t="s">
+        <v>1</v>
+      </c>
+      <c r="F304">
+        <v>59.96</v>
+      </c>
+      <c r="G304">
+        <v>58</v>
+      </c>
+      <c r="H304">
+        <v>61.93</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>85</v>
+      </c>
+      <c r="B305" t="s">
+        <v>51</v>
+      </c>
+      <c r="C305" t="s">
+        <v>52</v>
+      </c>
+      <c r="D305" t="s">
+        <v>2</v>
+      </c>
+      <c r="E305" t="s">
+        <v>1</v>
+      </c>
+      <c r="F305">
+        <v>63.28</v>
+      </c>
+      <c r="G305">
+        <v>61.05</v>
+      </c>
+      <c r="H305">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>85</v>
+      </c>
+      <c r="B306" t="s">
+        <v>53</v>
+      </c>
+      <c r="C306" t="s">
+        <v>54</v>
+      </c>
+      <c r="D306" t="s">
+        <v>0</v>
+      </c>
+      <c r="E306" t="s">
+        <v>1</v>
+      </c>
+      <c r="F306">
+        <v>57.91</v>
+      </c>
+      <c r="G306">
+        <v>55.95</v>
+      </c>
+      <c r="H306">
+        <v>59.86</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>85</v>
+      </c>
+      <c r="B307" t="s">
+        <v>53</v>
+      </c>
+      <c r="C307" t="s">
+        <v>54</v>
+      </c>
+      <c r="D307" t="s">
+        <v>2</v>
+      </c>
+      <c r="E307" t="s">
+        <v>1</v>
+      </c>
+      <c r="F307">
+        <v>62.98</v>
+      </c>
+      <c r="G307">
+        <v>61.02</v>
+      </c>
+      <c r="H307">
+        <v>64.94</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>85</v>
+      </c>
+      <c r="B308" t="s">
+        <v>55</v>
+      </c>
+      <c r="C308" t="s">
+        <v>56</v>
+      </c>
+      <c r="D308" t="s">
+        <v>0</v>
+      </c>
+      <c r="E308" t="s">
+        <v>1</v>
+      </c>
+      <c r="F308">
+        <v>61.79</v>
+      </c>
+      <c r="G308">
+        <v>59.63</v>
+      </c>
+      <c r="H308">
+        <v>63.94</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>85</v>
+      </c>
+      <c r="B309" t="s">
+        <v>55</v>
+      </c>
+      <c r="C309" t="s">
+        <v>56</v>
+      </c>
+      <c r="D309" t="s">
+        <v>2</v>
+      </c>
+      <c r="E309" t="s">
+        <v>1</v>
+      </c>
+      <c r="F309">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="G309">
+        <v>62.97</v>
+      </c>
+      <c r="H309">
+        <v>66.819999999999993</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>85</v>
+      </c>
+      <c r="B310" t="s">
+        <v>57</v>
+      </c>
+      <c r="C310" t="s">
+        <v>58</v>
+      </c>
+      <c r="D310" t="s">
+        <v>0</v>
+      </c>
+      <c r="E310" t="s">
+        <v>1</v>
+      </c>
+      <c r="F310">
+        <v>60.59</v>
+      </c>
+      <c r="G310">
+        <v>58.46</v>
+      </c>
+      <c r="H310">
+        <v>62.71</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>85</v>
+      </c>
+      <c r="B311" t="s">
+        <v>57</v>
+      </c>
+      <c r="C311" t="s">
+        <v>58</v>
+      </c>
+      <c r="D311" t="s">
+        <v>2</v>
+      </c>
+      <c r="E311" t="s">
+        <v>1</v>
+      </c>
+      <c r="F311">
+        <v>62.52</v>
+      </c>
+      <c r="G311">
+        <v>60.05</v>
+      </c>
+      <c r="H311">
+        <v>64.98</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>85</v>
+      </c>
+      <c r="B312" t="s">
+        <v>59</v>
+      </c>
+      <c r="C312" t="s">
+        <v>60</v>
+      </c>
+      <c r="D312" t="s">
+        <v>0</v>
+      </c>
+      <c r="E312" t="s">
+        <v>1</v>
+      </c>
+      <c r="F312">
+        <v>67.91</v>
+      </c>
+      <c r="G312">
+        <v>66.209999999999994</v>
+      </c>
+      <c r="H312">
+        <v>69.61</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>85</v>
+      </c>
+      <c r="B313" t="s">
+        <v>59</v>
+      </c>
+      <c r="C313" t="s">
+        <v>60</v>
+      </c>
+      <c r="D313" t="s">
+        <v>2</v>
+      </c>
+      <c r="E313" t="s">
+        <v>1</v>
+      </c>
+      <c r="F313">
+        <v>65.959999999999994</v>
+      </c>
+      <c r="G313">
+        <v>63.73</v>
+      </c>
+      <c r="H313">
+        <v>68.180000000000007</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>85</v>
+      </c>
+      <c r="B314" t="s">
+        <v>61</v>
+      </c>
+      <c r="C314" t="s">
+        <v>62</v>
+      </c>
+      <c r="D314" t="s">
+        <v>0</v>
+      </c>
+      <c r="E314" t="s">
+        <v>1</v>
+      </c>
+      <c r="F314">
+        <v>64.7</v>
+      </c>
+      <c r="G314">
+        <v>63.02</v>
+      </c>
+      <c r="H314">
+        <v>66.37</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>85</v>
+      </c>
+      <c r="B315" t="s">
+        <v>61</v>
+      </c>
+      <c r="C315" t="s">
+        <v>62</v>
+      </c>
+      <c r="D315" t="s">
+        <v>2</v>
+      </c>
+      <c r="E315" t="s">
+        <v>1</v>
+      </c>
+      <c r="F315">
+        <v>63.43</v>
+      </c>
+      <c r="G315">
+        <v>61.42</v>
+      </c>
+      <c r="H315">
+        <v>65.45</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>85</v>
+      </c>
+      <c r="B316" t="s">
+        <v>63</v>
+      </c>
+      <c r="C316" t="s">
+        <v>64</v>
+      </c>
+      <c r="D316" t="s">
+        <v>0</v>
+      </c>
+      <c r="E316" t="s">
+        <v>1</v>
+      </c>
+      <c r="F316">
+        <v>66.290000000000006</v>
+      </c>
+      <c r="G316">
+        <v>64.42</v>
+      </c>
+      <c r="H316">
+        <v>68.16</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>85</v>
+      </c>
+      <c r="B317" t="s">
+        <v>63</v>
+      </c>
+      <c r="C317" t="s">
+        <v>64</v>
+      </c>
+      <c r="D317" t="s">
+        <v>2</v>
+      </c>
+      <c r="E317" t="s">
+        <v>1</v>
+      </c>
+      <c r="F317">
+        <v>64.989999999999995</v>
+      </c>
+      <c r="G317">
+        <v>62.94</v>
+      </c>
+      <c r="H317">
+        <v>67.05</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>85</v>
+      </c>
+      <c r="B318" t="s">
+        <v>65</v>
+      </c>
+      <c r="C318" t="s">
+        <v>66</v>
+      </c>
+      <c r="D318" t="s">
+        <v>0</v>
+      </c>
+      <c r="E318" t="s">
+        <v>1</v>
+      </c>
+      <c r="F318">
+        <v>60.74</v>
+      </c>
+      <c r="G318">
+        <v>58.77</v>
+      </c>
+      <c r="H318">
+        <v>62.71</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>85</v>
+      </c>
+      <c r="B319" t="s">
+        <v>65</v>
+      </c>
+      <c r="C319" t="s">
+        <v>66</v>
+      </c>
+      <c r="D319" t="s">
+        <v>2</v>
+      </c>
+      <c r="E319" t="s">
+        <v>1</v>
+      </c>
+      <c r="F319">
+        <v>62.26</v>
+      </c>
+      <c r="G319">
+        <v>60.15</v>
+      </c>
+      <c r="H319">
+        <v>64.36</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>85</v>
+      </c>
+      <c r="B320" t="s">
+        <v>67</v>
+      </c>
+      <c r="C320" t="s">
+        <v>68</v>
+      </c>
+      <c r="D320" t="s">
+        <v>0</v>
+      </c>
+      <c r="E320" t="s">
+        <v>1</v>
+      </c>
+      <c r="F320">
+        <v>59.13</v>
+      </c>
+      <c r="G320">
+        <v>57.47</v>
+      </c>
+      <c r="H320">
+        <v>60.79</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>85</v>
+      </c>
+      <c r="B321" t="s">
+        <v>67</v>
+      </c>
+      <c r="C321" t="s">
+        <v>68</v>
+      </c>
+      <c r="D321" t="s">
+        <v>2</v>
+      </c>
+      <c r="E321" t="s">
+        <v>1</v>
+      </c>
+      <c r="F321">
+        <v>60.55</v>
+      </c>
+      <c r="G321">
+        <v>58.81</v>
+      </c>
+      <c r="H321">
+        <v>62.29</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>85</v>
+      </c>
+      <c r="B322" t="s">
+        <v>69</v>
+      </c>
+      <c r="C322" t="s">
+        <v>70</v>
+      </c>
+      <c r="D322" t="s">
+        <v>0</v>
+      </c>
+      <c r="E322" t="s">
+        <v>1</v>
+      </c>
+      <c r="F322">
+        <v>61.33</v>
+      </c>
+      <c r="G322">
+        <v>59.31</v>
+      </c>
+      <c r="H322">
+        <v>63.35</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>85</v>
+      </c>
+      <c r="B323" t="s">
+        <v>69</v>
+      </c>
+      <c r="C323" t="s">
+        <v>70</v>
+      </c>
+      <c r="D323" t="s">
+        <v>2</v>
+      </c>
+      <c r="E323" t="s">
+        <v>1</v>
+      </c>
+      <c r="F323">
+        <v>59.07</v>
+      </c>
+      <c r="G323">
+        <v>56.96</v>
+      </c>
+      <c r="H323">
+        <v>61.18</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>85</v>
+      </c>
+      <c r="B324" t="s">
+        <v>71</v>
+      </c>
+      <c r="C324" t="s">
+        <v>72</v>
+      </c>
+      <c r="D324" t="s">
+        <v>0</v>
+      </c>
+      <c r="E324" t="s">
+        <v>1</v>
+      </c>
+      <c r="F324">
+        <v>60.98</v>
+      </c>
+      <c r="G324">
+        <v>58.85</v>
+      </c>
+      <c r="H324">
+        <v>63.11</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>85</v>
+      </c>
+      <c r="B325" t="s">
+        <v>71</v>
+      </c>
+      <c r="C325" t="s">
+        <v>72</v>
+      </c>
+      <c r="D325" t="s">
+        <v>2</v>
+      </c>
+      <c r="E325" t="s">
+        <v>1</v>
+      </c>
+      <c r="F325">
+        <v>63.09</v>
+      </c>
+      <c r="G325">
+        <v>60.98</v>
+      </c>
+      <c r="H325">
+        <v>65.19</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>85</v>
+      </c>
+      <c r="B326" t="s">
+        <v>73</v>
+      </c>
+      <c r="C326" t="s">
+        <v>74</v>
+      </c>
+      <c r="D326" t="s">
+        <v>0</v>
+      </c>
+      <c r="E326" t="s">
+        <v>1</v>
+      </c>
+      <c r="F326">
+        <v>56.84</v>
+      </c>
+      <c r="G326">
+        <v>54.95</v>
+      </c>
+      <c r="H326">
+        <v>58.74</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>85</v>
+      </c>
+      <c r="B327" t="s">
+        <v>73</v>
+      </c>
+      <c r="C327" t="s">
+        <v>74</v>
+      </c>
+      <c r="D327" t="s">
+        <v>2</v>
+      </c>
+      <c r="E327" t="s">
+        <v>1</v>
+      </c>
+      <c r="F327">
+        <v>57.88</v>
+      </c>
+      <c r="G327">
+        <v>55.74</v>
+      </c>
+      <c r="H327">
+        <v>60.02</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>85</v>
+      </c>
+      <c r="B328" t="s">
+        <v>77</v>
+      </c>
+      <c r="C328" t="s">
+        <v>78</v>
+      </c>
+      <c r="D328" t="s">
+        <v>0</v>
+      </c>
+      <c r="E328" t="s">
+        <v>1</v>
+      </c>
+      <c r="F328">
+        <v>69.81</v>
+      </c>
+      <c r="G328">
+        <v>68.38</v>
+      </c>
+      <c r="H328">
+        <v>71.25</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>85</v>
+      </c>
+      <c r="B329" t="s">
+        <v>77</v>
+      </c>
+      <c r="C329" t="s">
+        <v>78</v>
+      </c>
+      <c r="D329" t="s">
+        <v>2</v>
+      </c>
+      <c r="E329" t="s">
+        <v>1</v>
+      </c>
+      <c r="F329">
+        <v>66.53</v>
+      </c>
+      <c r="G329">
+        <v>64.680000000000007</v>
+      </c>
+      <c r="H329">
+        <v>68.37</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>85</v>
+      </c>
+      <c r="B330" t="s">
+        <v>81</v>
+      </c>
+      <c r="C330" t="s">
+        <v>82</v>
+      </c>
+      <c r="D330" t="s">
+        <v>0</v>
+      </c>
+      <c r="E330" t="s">
+        <v>1</v>
+      </c>
+      <c r="F330">
+        <v>61.56</v>
+      </c>
+      <c r="G330">
+        <v>59.78</v>
+      </c>
+      <c r="H330">
+        <v>63.34</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>85</v>
+      </c>
+      <c r="B331" t="s">
+        <v>81</v>
+      </c>
+      <c r="C331" t="s">
+        <v>82</v>
+      </c>
+      <c r="D331" t="s">
+        <v>2</v>
+      </c>
+      <c r="E331" t="s">
+        <v>1</v>
+      </c>
+      <c r="F331">
+        <v>61.27</v>
+      </c>
+      <c r="G331">
+        <v>59.07</v>
+      </c>
+      <c r="H331">
+        <v>63.46</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>85</v>
+      </c>
+      <c r="B332" t="s">
+        <v>83</v>
+      </c>
+      <c r="C332" t="s">
+        <v>84</v>
+      </c>
+      <c r="D332" t="s">
+        <v>0</v>
+      </c>
+      <c r="E332" t="s">
+        <v>1</v>
+      </c>
+      <c r="F332">
+        <v>66.319999999999993</v>
+      </c>
+      <c r="G332">
+        <v>64.540000000000006</v>
+      </c>
+      <c r="H332">
+        <v>68.099999999999994</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>85</v>
+      </c>
+      <c r="B333" t="s">
+        <v>83</v>
+      </c>
+      <c r="C333" t="s">
+        <v>84</v>
+      </c>
+      <c r="D333" t="s">
+        <v>2</v>
+      </c>
+      <c r="E333" t="s">
+        <v>1</v>
+      </c>
+      <c r="F333">
+        <v>63.66</v>
+      </c>
+      <c r="G333">
+        <v>61.49</v>
+      </c>
+      <c r="H333">
+        <v>65.84</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>85</v>
+      </c>
+      <c r="B334" t="s">
+        <v>86</v>
+      </c>
+      <c r="C334" t="s">
+        <v>80</v>
+      </c>
+      <c r="D334" t="s">
+        <v>0</v>
+      </c>
+      <c r="E334" t="s">
+        <v>1</v>
+      </c>
+      <c r="F334">
+        <v>54.59</v>
+      </c>
+      <c r="G334">
+        <v>52.73</v>
+      </c>
+      <c r="H334">
+        <v>56.45</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>85</v>
+      </c>
+      <c r="B335" t="s">
+        <v>86</v>
+      </c>
+      <c r="C335" t="s">
+        <v>80</v>
+      </c>
+      <c r="D335" t="s">
+        <v>2</v>
+      </c>
+      <c r="E335" t="s">
+        <v>1</v>
+      </c>
+      <c r="F335">
+        <v>57.59</v>
+      </c>
+      <c r="G335">
+        <v>55.74</v>
+      </c>
+      <c r="H335">
+        <v>59.44</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>85</v>
+      </c>
+      <c r="B336" t="s">
+        <v>87</v>
+      </c>
+      <c r="C336" t="s">
+        <v>76</v>
+      </c>
+      <c r="D336" t="s">
+        <v>0</v>
+      </c>
+      <c r="E336" t="s">
+        <v>1</v>
+      </c>
+      <c r="F336">
+        <v>58.67</v>
+      </c>
+      <c r="G336">
+        <v>56.87</v>
+      </c>
+      <c r="H336">
+        <v>60.46</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>85</v>
+      </c>
+      <c r="B337" t="s">
+        <v>87</v>
+      </c>
+      <c r="C337" t="s">
+        <v>76</v>
+      </c>
+      <c r="D337" t="s">
+        <v>2</v>
+      </c>
+      <c r="E337" t="s">
+        <v>1</v>
+      </c>
+      <c r="F337">
+        <v>57.77</v>
+      </c>
+      <c r="G337">
+        <v>55.75</v>
+      </c>
+      <c r="H337">
+        <v>59.79</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>85</v>
+      </c>
+      <c r="B338" t="s">
+        <v>3</v>
+      </c>
+      <c r="C338" t="s">
+        <v>4</v>
+      </c>
+      <c r="D338" t="s">
+        <v>2</v>
+      </c>
+      <c r="E338" t="s">
+        <v>1</v>
+      </c>
+      <c r="F338">
+        <v>61.94</v>
+      </c>
+      <c r="G338">
+        <v>61.48</v>
+      </c>
+      <c r="H338">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>85</v>
+      </c>
+      <c r="B339" t="s">
+        <v>3</v>
+      </c>
+      <c r="C339" t="s">
+        <v>4</v>
+      </c>
+      <c r="D339" t="s">
+        <v>0</v>
+      </c>
+      <c r="E339" t="s">
+        <v>1</v>
+      </c>
+      <c r="F339">
+        <v>61.68</v>
+      </c>
+      <c r="G339">
+        <v>61.26</v>
+      </c>
+      <c r="H339">
+        <v>62.09</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:H273">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H273">
     <sortCondition ref="C2:C273"/>
     <sortCondition ref="D2:D273"/>
     <sortCondition ref="A2:A273"/>
@@ -7765,21 +9485,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TrackerID xmlns="e73541d3-5dbc-467b-ad85-92b29e93bc53">685</TrackerID>
     <MoveTo xmlns="2541d45d-41ad-4814-bf67-1422fc7ee58e" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7920,6 +9640,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D3EA677-7C4B-4418-9CD0-DA2D17E4A64C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2400BD1B-07FA-4CC2-BD11-B1CD3AC52BA6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7932,14 +9660,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="2541d45d-41ad-4814-bf67-1422fc7ee58e"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D3EA677-7C4B-4418-9CD0-DA2D17E4A64C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
